--- a/app/public/static/aktemp-files-template.xlsx
+++ b/app/public/static/aktemp-files-template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jeff/git/ecosheds/aktemp/app/public/static/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECF85F73-2A59-8E4B-9164-12CA46ED1816}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27FFDD33-CA23-3642-B099-1607150C7751}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-51200" yWindow="500" windowWidth="25600" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-51200" yWindow="500" windowWidth="48220" windowHeight="28300" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="125">
   <si>
     <t>Updated:</t>
   </si>
@@ -45,30 +45,6 @@
     <t>Notes</t>
   </si>
   <si>
-    <t>Archangel</t>
-  </si>
-  <si>
-    <t>Archangel-20431778.csv</t>
-  </si>
-  <si>
-    <t>Archangel-20689953.csv</t>
-  </si>
-  <si>
-    <t>Coal Creek</t>
-  </si>
-  <si>
-    <t>Coal Creek-20689995.csv</t>
-  </si>
-  <si>
-    <t>Coho Creek-20431771.csv</t>
-  </si>
-  <si>
-    <t>Coho Creek-20689952.csv</t>
-  </si>
-  <si>
-    <t>Fish Hook Creek-20861232.csv</t>
-  </si>
-  <si>
     <t>datetime</t>
   </si>
   <si>
@@ -120,22 +96,10 @@
     <t>MID-DEPTH</t>
   </si>
   <si>
-    <t>-999,NA</t>
-  </si>
-  <si>
     <t>flag</t>
   </si>
   <si>
     <t>STATION</t>
-  </si>
-  <si>
-    <t>station</t>
-  </si>
-  <si>
-    <t>BOTTOM</t>
-  </si>
-  <si>
-    <t>SURFACE</t>
   </si>
   <si>
     <t>temp_f</t>
@@ -454,7 +418,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="170" formatCode="[$-409]mmmm\ d\,\ yyyy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]mmmm\ d\,\ yyyy;@"/>
   </numFmts>
   <fonts count="26" x14ac:knownFonts="1">
     <font>
@@ -1118,7 +1082,7 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1154,7 +1118,7 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1175,96 +1139,95 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="14" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="170" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="43">
@@ -1743,8 +1706,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
@@ -1760,14 +1723,14 @@
   <sheetData>
     <row r="1" spans="1:5" ht="24" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="50">
+      <c r="B3" s="37">
         <v>44812</v>
       </c>
     </row>
@@ -1780,7 +1743,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -1788,15 +1751,15 @@
       <c r="B6" s="4"/>
     </row>
     <row r="7" spans="1:5" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="52" t="s">
-        <v>130</v>
-      </c>
-      <c r="B7" s="51" t="s">
-        <v>131</v>
-      </c>
-      <c r="C7" s="51"/>
-      <c r="D7" s="51"/>
-      <c r="E7" s="51"/>
+      <c r="A7" s="38" t="s">
+        <v>118</v>
+      </c>
+      <c r="B7" s="43" t="s">
+        <v>119</v>
+      </c>
+      <c r="C7" s="43"/>
+      <c r="D7" s="43"/>
+      <c r="E7" s="43"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
@@ -1807,37 +1770,37 @@
         <v>2</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="B10" s="4" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="5"/>
       <c r="B11" s="4" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="5"/>
       <c r="B12" s="4" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="5"/>
       <c r="B13" s="4" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="5"/>
       <c r="B14" s="4" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -1847,395 +1810,395 @@
       <c r="A16" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B16" s="40" t="s">
-        <v>58</v>
-      </c>
-      <c r="C16" s="41" t="s">
+      <c r="B16" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="C16" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="D16" s="40" t="s">
+      <c r="D16" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="E16" s="42" t="s">
+      <c r="E16" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="20" x14ac:dyDescent="0.25">
       <c r="A17" s="5"/>
-      <c r="B17" s="43" t="s">
-        <v>40</v>
-      </c>
-      <c r="C17" s="44" t="s">
-        <v>85</v>
-      </c>
-      <c r="D17" s="43"/>
-      <c r="E17" s="45" t="s">
-        <v>59</v>
+      <c r="B17" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17" s="31" t="s">
+        <v>73</v>
+      </c>
+      <c r="D17" s="30"/>
+      <c r="E17" s="32" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="20" x14ac:dyDescent="0.25">
       <c r="A18" s="5"/>
-      <c r="B18" s="43" t="s">
-        <v>41</v>
-      </c>
-      <c r="C18" s="44" t="s">
-        <v>85</v>
-      </c>
-      <c r="D18" s="46" t="s">
-        <v>89</v>
-      </c>
-      <c r="E18" s="47" t="s">
-        <v>63</v>
+      <c r="B18" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="C18" s="31" t="s">
+        <v>73</v>
+      </c>
+      <c r="D18" s="33" t="s">
+        <v>77</v>
+      </c>
+      <c r="E18" s="34" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="40" x14ac:dyDescent="0.25">
       <c r="A19" s="5"/>
-      <c r="B19" s="43" t="s">
-        <v>42</v>
-      </c>
-      <c r="C19" s="44" t="s">
-        <v>85</v>
-      </c>
-      <c r="D19" s="46" t="s">
-        <v>90</v>
-      </c>
-      <c r="E19" s="47" t="s">
-        <v>106</v>
+      <c r="B19" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="C19" s="31" t="s">
+        <v>73</v>
+      </c>
+      <c r="D19" s="33" t="s">
+        <v>78</v>
+      </c>
+      <c r="E19" s="34" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="40" x14ac:dyDescent="0.25">
       <c r="A20" s="5"/>
-      <c r="B20" s="43" t="s">
-        <v>43</v>
-      </c>
-      <c r="C20" s="44" t="s">
-        <v>85</v>
-      </c>
-      <c r="D20" s="43"/>
-      <c r="E20" s="47" t="s">
-        <v>105</v>
+      <c r="B20" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="C20" s="31" t="s">
+        <v>73</v>
+      </c>
+      <c r="D20" s="30"/>
+      <c r="E20" s="34" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="40" x14ac:dyDescent="0.25">
       <c r="A21" s="5"/>
-      <c r="B21" s="43" t="s">
-        <v>44</v>
-      </c>
-      <c r="C21" s="44" t="s">
-        <v>85</v>
-      </c>
-      <c r="D21" s="46"/>
-      <c r="E21" s="45" t="s">
-        <v>67</v>
+      <c r="B21" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="C21" s="31" t="s">
+        <v>73</v>
+      </c>
+      <c r="D21" s="33"/>
+      <c r="E21" s="32" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="40" x14ac:dyDescent="0.25">
       <c r="A22" s="5"/>
-      <c r="B22" s="43" t="s">
+      <c r="B22" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="C22" s="31"/>
+      <c r="D22" s="33"/>
+      <c r="E22" s="32" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="B23" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="C23" s="31" t="s">
+        <v>73</v>
+      </c>
+      <c r="D23" s="33" t="s">
+        <v>79</v>
+      </c>
+      <c r="E23" s="32" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" ht="80" x14ac:dyDescent="0.25">
+      <c r="B24" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="C24" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="D24" s="33"/>
+      <c r="E24" s="32" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" ht="20" x14ac:dyDescent="0.25">
+      <c r="B25" s="30" t="s">
+        <v>39</v>
+      </c>
+      <c r="C25" s="31" t="s">
+        <v>73</v>
+      </c>
+      <c r="D25" s="33"/>
+      <c r="E25" s="32" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" ht="20" x14ac:dyDescent="0.25">
+      <c r="B26" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="C26" s="31" t="s">
+        <v>73</v>
+      </c>
+      <c r="D26" s="30"/>
+      <c r="E26" s="32" t="s">
+        <v>70</v>
+      </c>
+      <c r="K26" s="13"/>
+    </row>
+    <row r="27" spans="1:11" ht="40" x14ac:dyDescent="0.25">
+      <c r="B27" s="30" t="s">
+        <v>41</v>
+      </c>
+      <c r="C27" s="31"/>
+      <c r="D27" s="30"/>
+      <c r="E27" s="32" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" ht="40" x14ac:dyDescent="0.25">
+      <c r="B28" s="30" t="s">
+        <v>42</v>
+      </c>
+      <c r="C28" s="31"/>
+      <c r="D28" s="30"/>
+      <c r="E28" s="32" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" ht="80" x14ac:dyDescent="0.25">
+      <c r="B29" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="C29" s="31"/>
+      <c r="D29" s="33" t="s">
+        <v>80</v>
+      </c>
+      <c r="E29" s="32" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" ht="120" x14ac:dyDescent="0.25">
+      <c r="B30" s="30" t="s">
+        <v>37</v>
+      </c>
+      <c r="C30" s="31" t="s">
+        <v>74</v>
+      </c>
+      <c r="D30" s="33"/>
+      <c r="E30" s="32" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="B31" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="C31" s="31" t="s">
+        <v>75</v>
+      </c>
+      <c r="D31" s="30"/>
+      <c r="E31" s="32" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" ht="40" x14ac:dyDescent="0.25">
+      <c r="B32" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="C32" s="31"/>
+      <c r="D32" s="33" t="s">
+        <v>81</v>
+      </c>
+      <c r="E32" s="32" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="40" x14ac:dyDescent="0.25">
+      <c r="B33" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="C33" s="31"/>
+      <c r="D33" s="33" t="s">
+        <v>82</v>
+      </c>
+      <c r="E33" s="32" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="80" x14ac:dyDescent="0.25">
+      <c r="B34" s="30" t="s">
         <v>45</v>
       </c>
-      <c r="C22" s="44"/>
-      <c r="D22" s="46"/>
-      <c r="E22" s="45" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="B23" s="43" t="s">
-        <v>46</v>
-      </c>
-      <c r="C23" s="44" t="s">
-        <v>85</v>
-      </c>
-      <c r="D23" s="46" t="s">
+      <c r="C34" s="31"/>
+      <c r="D34" s="33" t="s">
+        <v>82</v>
+      </c>
+      <c r="E34" s="32" t="s">
         <v>91</v>
-      </c>
-      <c r="E23" s="45" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" ht="80" x14ac:dyDescent="0.25">
-      <c r="B24" s="43" t="s">
-        <v>47</v>
-      </c>
-      <c r="C24" s="44" t="s">
-        <v>84</v>
-      </c>
-      <c r="D24" s="46"/>
-      <c r="E24" s="45" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" ht="80" x14ac:dyDescent="0.25">
-      <c r="B25" s="43" t="s">
-        <v>48</v>
-      </c>
-      <c r="C25" s="44"/>
-      <c r="D25" s="46" t="s">
-        <v>92</v>
-      </c>
-      <c r="E25" s="45" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" ht="120" x14ac:dyDescent="0.25">
-      <c r="B26" s="43" t="s">
-        <v>49</v>
-      </c>
-      <c r="C26" s="44" t="s">
-        <v>86</v>
-      </c>
-      <c r="D26" s="46"/>
-      <c r="E26" s="45" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="B27" s="43" t="s">
-        <v>50</v>
-      </c>
-      <c r="C27" s="44" t="s">
-        <v>87</v>
-      </c>
-      <c r="D27" s="43"/>
-      <c r="E27" s="45" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" ht="20" x14ac:dyDescent="0.25">
-      <c r="B28" s="43" t="s">
-        <v>51</v>
-      </c>
-      <c r="C28" s="44" t="s">
-        <v>85</v>
-      </c>
-      <c r="D28" s="46"/>
-      <c r="E28" s="45" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" ht="20" x14ac:dyDescent="0.25">
-      <c r="B29" s="43" t="s">
-        <v>52</v>
-      </c>
-      <c r="C29" s="44" t="s">
-        <v>85</v>
-      </c>
-      <c r="D29" s="43"/>
-      <c r="E29" s="45" t="s">
-        <v>82</v>
-      </c>
-      <c r="K29" s="13"/>
-    </row>
-    <row r="30" spans="1:11" ht="40" x14ac:dyDescent="0.25">
-      <c r="B30" s="43" t="s">
-        <v>53</v>
-      </c>
-      <c r="C30" s="44"/>
-      <c r="D30" s="43"/>
-      <c r="E30" s="45" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" ht="40" x14ac:dyDescent="0.25">
-      <c r="B31" s="43" t="s">
-        <v>54</v>
-      </c>
-      <c r="C31" s="44"/>
-      <c r="D31" s="43"/>
-      <c r="E31" s="45" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" ht="40" x14ac:dyDescent="0.25">
-      <c r="B32" s="43" t="s">
-        <v>55</v>
-      </c>
-      <c r="C32" s="44"/>
-      <c r="D32" s="46" t="s">
-        <v>93</v>
-      </c>
-      <c r="E32" s="45" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" ht="40" x14ac:dyDescent="0.25">
-      <c r="B33" s="43" t="s">
-        <v>56</v>
-      </c>
-      <c r="C33" s="44"/>
-      <c r="D33" s="46" t="s">
-        <v>94</v>
-      </c>
-      <c r="E33" s="45" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" ht="80" x14ac:dyDescent="0.25">
-      <c r="B34" s="43" t="s">
-        <v>57</v>
-      </c>
-      <c r="C34" s="44"/>
-      <c r="D34" s="46" t="s">
-        <v>94</v>
-      </c>
-      <c r="E34" s="45" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B36" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="C36" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="D36" s="44" t="s">
+        <v>48</v>
+      </c>
+      <c r="E36" s="45"/>
+    </row>
+    <row r="37" spans="1:6" ht="19" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B37" s="24"/>
+      <c r="C37" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="D37" s="46" t="s">
+        <v>49</v>
+      </c>
+      <c r="E37" s="47"/>
+    </row>
+    <row r="38" spans="1:6" ht="19" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B38" s="25"/>
+      <c r="C38" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="D38" s="48" t="s">
+        <v>50</v>
+      </c>
+      <c r="E38" s="49"/>
+    </row>
+    <row r="39" spans="1:6" ht="19" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B39" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="C39" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D39" s="44" t="s">
+        <v>57</v>
+      </c>
+      <c r="E39" s="45"/>
+    </row>
+    <row r="40" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B40" s="25"/>
+      <c r="C40" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="D40" s="48" t="s">
+        <v>58</v>
+      </c>
+      <c r="E40" s="49"/>
+    </row>
+    <row r="41" spans="1:6" ht="40" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B41" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="C41" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="D41" s="44" t="s">
+        <v>59</v>
+      </c>
+      <c r="E41" s="45"/>
+    </row>
+    <row r="42" spans="1:6" ht="40" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B42" s="26"/>
+      <c r="C42" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="D42" s="46" t="s">
+        <v>60</v>
+      </c>
+      <c r="E42" s="47"/>
+    </row>
+    <row r="43" spans="1:6" ht="58" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B43" s="27"/>
+      <c r="C43" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="D43" s="48" t="s">
+        <v>61</v>
+      </c>
+      <c r="E43" s="49"/>
+      <c r="F43" s="12"/>
+    </row>
+    <row r="44" spans="1:6" ht="37" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B44" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="C44" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D44" s="44" t="s">
         <v>64</v>
       </c>
-      <c r="B36" s="35" t="s">
-        <v>65</v>
-      </c>
-      <c r="C36" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="D36" s="25" t="s">
-        <v>60</v>
-      </c>
-      <c r="E36" s="30"/>
-    </row>
-    <row r="37" spans="1:6" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="36"/>
-      <c r="C37" s="18" t="s">
+      <c r="E44" s="45"/>
+    </row>
+    <row r="45" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B45" s="26"/>
+      <c r="C45" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="D37" s="26" t="s">
-        <v>61</v>
-      </c>
-      <c r="E37" s="31"/>
-    </row>
-    <row r="38" spans="1:6" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="37"/>
-      <c r="C38" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="D38" s="27" t="s">
-        <v>62</v>
-      </c>
-      <c r="E38" s="32"/>
-    </row>
-    <row r="39" spans="1:6" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="35" t="s">
+      <c r="D45" s="46" t="s">
         <v>66</v>
       </c>
-      <c r="C39" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="D39" s="25" t="s">
-        <v>69</v>
-      </c>
-      <c r="E39" s="30"/>
-    </row>
-    <row r="40" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="37"/>
-      <c r="C40" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="D40" s="27" t="s">
-        <v>70</v>
-      </c>
-      <c r="E40" s="32"/>
-    </row>
-    <row r="41" spans="1:6" ht="40" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="35" t="s">
-        <v>68</v>
-      </c>
-      <c r="C41" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="D41" s="25" t="s">
-        <v>71</v>
-      </c>
-      <c r="E41" s="30"/>
-    </row>
-    <row r="42" spans="1:6" ht="40" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="38"/>
-      <c r="C42" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="D42" s="26" t="s">
-        <v>72</v>
-      </c>
-      <c r="E42" s="31"/>
-    </row>
-    <row r="43" spans="1:6" ht="58" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="39"/>
-      <c r="C43" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="D43" s="27" t="s">
-        <v>73</v>
-      </c>
-      <c r="E43" s="32"/>
-      <c r="F43" s="12"/>
-    </row>
-    <row r="44" spans="1:6" ht="37" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="35" t="s">
-        <v>75</v>
-      </c>
-      <c r="C44" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="D44" s="25" t="s">
-        <v>76</v>
-      </c>
-      <c r="E44" s="30"/>
-    </row>
-    <row r="45" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="38"/>
-      <c r="C45" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="D45" s="26" t="s">
-        <v>78</v>
-      </c>
-      <c r="E45" s="31"/>
+      <c r="E45" s="47"/>
     </row>
     <row r="46" spans="1:6" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="39"/>
+      <c r="B46" s="27"/>
       <c r="C46" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="D46" s="27" t="s">
-        <v>79</v>
-      </c>
-      <c r="E46" s="32"/>
+        <v>22</v>
+      </c>
+      <c r="D46" s="48" t="s">
+        <v>67</v>
+      </c>
+      <c r="E46" s="49"/>
     </row>
     <row r="47" spans="1:6" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="38" t="s">
-        <v>95</v>
+      <c r="B47" s="26" t="s">
+        <v>83</v>
       </c>
       <c r="C47" s="15">
         <v>1</v>
       </c>
-      <c r="D47" s="28" t="s">
-        <v>96</v>
-      </c>
-      <c r="E47" s="33"/>
+      <c r="D47" s="50" t="s">
+        <v>84</v>
+      </c>
+      <c r="E47" s="51"/>
     </row>
     <row r="48" spans="1:6" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B48" s="20"/>
       <c r="C48" s="15">
         <v>2</v>
       </c>
-      <c r="D48" s="29" t="s">
-        <v>97</v>
-      </c>
-      <c r="E48" s="34"/>
+      <c r="D48" s="39" t="s">
+        <v>85</v>
+      </c>
+      <c r="E48" s="40"/>
     </row>
     <row r="49" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B49" s="21"/>
-      <c r="C49" s="24">
+      <c r="C49" s="22">
         <v>3</v>
       </c>
-      <c r="D49" s="22" t="s">
-        <v>98</v>
-      </c>
-      <c r="E49" s="23"/>
+      <c r="D49" s="41" t="s">
+        <v>86</v>
+      </c>
+      <c r="E49" s="42"/>
     </row>
   </sheetData>
   <mergeCells count="15">
@@ -2267,273 +2230,121 @@
   <dimension ref="A1:R45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:R1"/>
+      <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="48.1640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="34.6640625" style="7" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.33203125" style="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.33203125" style="8" customWidth="1"/>
-    <col min="4" max="4" width="32.1640625" style="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.6640625" style="8" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.33203125" style="8" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.6640625" style="8" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.33203125" style="8" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.83203125" style="8" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.5" style="8" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.5" style="8" customWidth="1"/>
-    <col min="12" max="12" width="17.33203125" style="8" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.33203125" style="8" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.33203125" style="8" customWidth="1"/>
-    <col min="15" max="15" width="15.1640625" style="8" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.33203125" style="8" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="13.33203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.6640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28" style="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16" style="8" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.5" style="8" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.1640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="25.6640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="22.83203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.83203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15" style="8" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.5" style="8" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.1640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.6640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="20" style="8" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.83203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.1640625" style="7" bestFit="1" customWidth="1"/>
     <col min="19" max="16384" width="10.83203125" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="H1" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="I1" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="J1" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="K1" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="L1" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="M1" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="N1" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="O1" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="P1" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="Q1" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="R1" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="G1" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="H1" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="I1" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="J1" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="K1" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="L1" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="M1" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="N1" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="O1" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="P1" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q1" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="R1" s="10" t="s">
-        <v>57</v>
-      </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A2" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>15</v>
-      </c>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
       <c r="F2" s="7"/>
-      <c r="G2" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="H2" s="8">
-        <v>-9</v>
-      </c>
-      <c r="I2" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="J2" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="K2" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="L2" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="M2" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="N2" s="8">
-        <v>-9999</v>
-      </c>
-      <c r="O2" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="P2" s="7">
-        <v>1</v>
-      </c>
-      <c r="Q2" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="R2" s="7" t="b">
-        <v>1</v>
-      </c>
+      <c r="O2" s="7"/>
+      <c r="P2" s="7"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A3" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G3" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="H3" s="8">
-        <v>-8</v>
-      </c>
-      <c r="I3" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="J3" s="8">
-        <v>5</v>
-      </c>
-      <c r="K3" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="L3" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="M3" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="N3" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="P3" s="7">
-        <v>2</v>
-      </c>
-      <c r="Q3" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="R3" s="7" t="b">
-        <v>0</v>
-      </c>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="K3" s="11"/>
+      <c r="O3" s="7"/>
+      <c r="P3" s="7"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A4" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>10</v>
-      </c>
+      <c r="D4" s="7"/>
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
-      <c r="G4" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="H4" s="8">
-        <v>-7</v>
-      </c>
-      <c r="I4" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="J4" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="P4" s="7">
-        <v>3</v>
-      </c>
+      <c r="P4" s="7"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A5" s="7" t="s">
-        <v>12</v>
-      </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7"/>
-      <c r="G5" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="H5" s="8">
-        <v>0</v>
-      </c>
-      <c r="I5" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="J5" s="8" t="s">
-        <v>31</v>
-      </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A6" s="7" t="s">
-        <v>13</v>
-      </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7"/>
-      <c r="G6" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="I6" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="J6" s="8" t="s">
-        <v>37</v>
-      </c>
       <c r="P6" s="7"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A7" s="7" t="s">
-        <v>14</v>
-      </c>
       <c r="D7" s="7"/>
       <c r="E7" s="7"/>
-      <c r="G7" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="H7" s="8" t="s">
-        <v>26</v>
-      </c>
       <c r="P7" s="7"/>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.2">
@@ -2735,11 +2546,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49586CA0-D21C-204E-A207-ACD740665BED}">
   <dimension ref="A1:U10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="O10" sqref="O10"/>
+      <selection pane="bottomRight" activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2753,13 +2564,13 @@
     <col min="7" max="7" width="16" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="19.5" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="19.1640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.1640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="25.6640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="22.83203125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="17.83203125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="25.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="22.83203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.83203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.6640625" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="20" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="11.83203125" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="12.1640625" bestFit="1" customWidth="1"/>
@@ -2767,109 +2578,109 @@
   <sheetData>
     <row r="1" spans="1:21" ht="21" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="B1" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="H1" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="I1" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="J1" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="K1" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="L1" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="M1" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="N1" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="O1" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="P1" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q1" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="R1" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="S1" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="H1" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="I1" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="J1" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="K1" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="L1" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="M1" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="N1" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="O1" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="P1" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q1" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="R1" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="S1" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="U1" s="48" t="s">
-        <v>109</v>
+      <c r="U1" s="35" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="2" spans="1:21" ht="176" x14ac:dyDescent="0.25">
-      <c r="A2" s="49" t="s">
-        <v>114</v>
+      <c r="A2" s="36" t="s">
+        <v>102</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="G2" s="7"/>
       <c r="H2" s="8" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="I2" s="8">
         <v>-9</v>
       </c>
       <c r="J2" s="8" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="K2" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="L2" s="7"/>
-      <c r="M2" s="8" t="s">
-        <v>17</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="L2" s="8">
+        <v>-9999</v>
+      </c>
+      <c r="M2" s="8"/>
       <c r="N2" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="O2" s="8">
-        <v>-9999</v>
-      </c>
-      <c r="P2" s="8"/>
+        <v>22</v>
+      </c>
+      <c r="O2" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="P2" s="7"/>
       <c r="Q2" s="7">
         <v>1</v>
       </c>
@@ -2881,48 +2692,48 @@
       </c>
     </row>
     <row r="3" spans="1:21" ht="198" x14ac:dyDescent="0.25">
-      <c r="A3" s="49" t="s">
-        <v>117</v>
+      <c r="A3" s="36" t="s">
+        <v>105</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="G3" s="7"/>
       <c r="H3" s="8" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="I3" s="8"/>
       <c r="J3" s="8" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="K3" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="L3" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="M3" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="L3" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="M3" s="8"/>
+      <c r="N3" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="N3" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="O3" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="P3" s="8"/>
+      <c r="O3" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="P3" s="7" t="s">
+        <v>21</v>
+      </c>
       <c r="Q3" s="7"/>
       <c r="R3" s="7" t="b">
         <v>0</v>
@@ -2932,51 +2743,51 @@
       </c>
     </row>
     <row r="4" spans="1:21" ht="198" x14ac:dyDescent="0.25">
-      <c r="A4" s="49" t="s">
-        <v>115</v>
+      <c r="A4" s="36" t="s">
+        <v>103</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="G4" s="7"/>
       <c r="H4" s="8" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="I4" s="8">
         <v>-8</v>
       </c>
       <c r="J4" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="K4" s="8">
+        <v>9</v>
+      </c>
+      <c r="K4" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="L4" s="8">
+        <v>-9999</v>
+      </c>
+      <c r="M4" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="N4" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="O4" s="8">
         <v>1</v>
       </c>
-      <c r="L4" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="M4" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="N4" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="O4" s="8">
-        <v>-9999</v>
-      </c>
-      <c r="P4" s="11" t="s">
-        <v>33</v>
+      <c r="P4" s="7" t="s">
+        <v>21</v>
       </c>
       <c r="Q4" s="7">
         <v>1</v>
@@ -2989,91 +2800,91 @@
       </c>
     </row>
     <row r="5" spans="1:21" ht="149" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="49" t="s">
-        <v>128</v>
+      <c r="A5" s="36" t="s">
+        <v>116</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="G5" s="7"/>
       <c r="H5" s="8" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="I5" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="J5" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="J5" s="8" t="s">
-        <v>25</v>
-      </c>
       <c r="K5" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="M5" s="8" t="s">
-        <v>38</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="L5" s="8"/>
+      <c r="M5" s="11"/>
       <c r="N5" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="O5" s="8"/>
-      <c r="P5" s="11"/>
+        <v>17</v>
+      </c>
+      <c r="O5" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>115</v>
+      </c>
       <c r="Q5" s="7"/>
       <c r="R5" s="7"/>
       <c r="S5" s="7"/>
     </row>
     <row r="6" spans="1:21" ht="155" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="49" t="s">
-        <v>118</v>
+      <c r="A6" s="36" t="s">
+        <v>106</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="H6" s="8" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="I6" s="8">
         <v>-8</v>
       </c>
-      <c r="J6" s="8"/>
-      <c r="K6" s="8"/>
-      <c r="L6" s="7"/>
-      <c r="M6" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="N6" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="O6" s="11"/>
-      <c r="P6" s="8"/>
+      <c r="J6" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="K6" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="L6" s="11"/>
+      <c r="M6" s="8"/>
+      <c r="N6" s="8"/>
+      <c r="O6" s="8"/>
+      <c r="P6" s="7"/>
       <c r="Q6" s="7"/>
       <c r="R6" s="7"/>
       <c r="S6" s="7" t="b">

--- a/app/public/static/aktemp-files-template.xlsx
+++ b/app/public/static/aktemp-files-template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10814"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10911"/>
   <workbookPr showObjects="none" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jeff/git/ecosheds/aktemp/app/public/static/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27FFDD33-CA23-3642-B099-1607150C7751}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47B38C04-9F0D-BE46-80A5-830567A31B8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-51200" yWindow="500" windowWidth="48220" windowHeight="28300" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-51200" yWindow="500" windowWidth="48220" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="134">
   <si>
     <t>Updated:</t>
   </si>
@@ -84,24 +84,15 @@
     <t>depth_m</t>
   </si>
   <si>
-    <t>VALUE</t>
-  </si>
-  <si>
     <t>m</t>
   </si>
   <si>
-    <t>CATEGORY</t>
-  </si>
-  <si>
     <t>MID-DEPTH</t>
   </si>
   <si>
     <t>flag</t>
   </si>
   <si>
-    <t>STATION</t>
-  </si>
-  <si>
     <t>temp_f</t>
   </si>
   <si>
@@ -114,12 +105,6 @@
     <t>File Type</t>
   </si>
   <si>
-    <t>Station Mode</t>
-  </si>
-  <si>
-    <t>Station Value</t>
-  </si>
-  <si>
     <t>Datetime/Date Column</t>
   </si>
   <si>
@@ -129,15 +114,6 @@
     <t>Timezone Mode</t>
   </si>
   <si>
-    <t>Timezone Value</t>
-  </si>
-  <si>
-    <t>Depth Mode</t>
-  </si>
-  <si>
-    <t>Depth Value</t>
-  </si>
-  <si>
     <t>Depth Units</t>
   </si>
   <si>
@@ -165,9 +141,6 @@
     <t>Column</t>
   </si>
   <si>
-    <t>copy and paste from website table</t>
-  </si>
-  <si>
     <t>Continuous timeseries collected at regular intervals (e.g., hourly) by data logger</t>
   </si>
   <si>
@@ -184,9 +157,6 @@
   </si>
   <si>
     <t>File Type:</t>
-  </si>
-  <si>
-    <t>Station Mode:</t>
   </si>
   <si>
     <t>column name containing datetimes (i.e., timestamps), or
@@ -196,12 +166,6 @@
     <t>Timezone Mode:</t>
   </si>
   <si>
-    <t>File contains data for a single station only. If selected, then enter the station code in the 'Station Value' field</t>
-  </si>
-  <si>
-    <t>File contains data for multiple stations and includes a column containing the station codes. If selected, then enter the column name containing the station codes in the 'Station Value' field.</t>
-  </si>
-  <si>
     <t>All datetimes (timestamps) have the same UTC (aka GMT) offset. If selected, then enter the UTC offset in hours (e.g., '-9' for AKST, '-8' for AKDT or PST, '-7' for PDT, '0' for UTC) in the 'Timezone Value' field.</t>
   </si>
   <si>
@@ -209,35 +173,12 @@
   </si>
   <si>
     <t>The timezone information is included in the Datetime Column or (Time Column if dates and times are separate). If selected, the timezone info should be indicated at the end of each timestamp in standard ISO format (e.g., '2022-09-01 12:00:00-0800' to indicate AKDT), see https://en.wikipedia.org/wiki/ISO_8601#Time_offsets_from_UTC</t>
-  </si>
-  <si>
-    <t>if Timezone Mode = UTCOFFSET, then enter the UTC offset in hours ('-9' for AKST, '-8' for AKDT or PST, '-7' for PDT, '0' for UTC)
-if Timezone Mode = COLUMN, then enter the column name containing the UTC offset in hours
-if Timezone Mode = TIMESTAMP, then leave blank</t>
-  </si>
-  <si>
-    <t>Depth Mode:</t>
-  </si>
-  <si>
-    <t>File contains a column specifying the depth of each measurement. If selected, then enter the column name containing the depths in the 'Depth Value' field, and enter the units of those depths in the 'Depth Units' field.</t>
   </si>
   <si>
     <t>column name containing times if dates and times are provided in separate columns
 leave blank if dates and times provided in a single column (Datetime/Date Column)</t>
   </si>
   <si>
-    <t>All measurements within file were collected at the same (approximate) depth. If selected, then enter the depth as a number in the 'Depth Value' field, and enter the units of that depth in the 'Depth Units' field.</t>
-  </si>
-  <si>
-    <t>All measurements within file were collected at the same depth category. If selected, then enter the depth category  (must be one of ['BOTTOM', 'MID-DEPTH', 'SURFACE']) in the 'Depth Value' field.</t>
-  </si>
-  <si>
-    <t>if Depth Mode = COLUMN, then enter the column name containing the depth of each row
-if Depth Mode = VALUE, then enter the approximate depth (as a number) at which all measurements were collected
-if Depth Mode = CATEGORY, then enter the depth category ('BOTTOM', 'MID-DEPTH', 'SURFACE') at which all measurements were collected
-leave blank if Depth Mode is blank (no depth information available)</t>
-  </si>
-  <si>
     <t>column name containing temperature values</t>
   </si>
   <si>
@@ -247,32 +188,10 @@
     <t>missing value indicators (e.g., '-9999'). Multiple missing value indicates may be provided as a comma-separated list (e.g., '-9999,NA,missing')</t>
   </si>
   <si>
-    <t>if Timezone Mode = UTCOFFSET or COLUMN</t>
-  </si>
-  <si>
     <t>Always</t>
   </si>
   <si>
-    <t>If Depth Mode is not blank</t>
-  </si>
-  <si>
-    <t>If Depth Mode = COLUMN or VALUE</t>
-  </si>
-  <si>
-    <t>indicates whether file contains a column indicating depth of each measurement row (COLUMN), or if all measurements were collected at the same approximate numeric depth (VALUE), or if all measurements were collected at the same depth category. see definitions below.
-leave blank if depth information is not available</t>
-  </si>
-  <si>
     <t>CONTINUOUS, DISCRETE, PROFILES</t>
-  </si>
-  <si>
-    <t>STATION, COLUMN</t>
-  </si>
-  <si>
-    <t>UTCOFFSET, COLUMN, TIMESTAMP</t>
-  </si>
-  <si>
-    <t>COLUMN, VALUE, CATEGORY</t>
   </si>
   <si>
     <t>1, 2, 3</t>
@@ -297,10 +216,6 @@
 leave blank if File Type = DISCRETE or PROFILES or if pre/post bath check is unknown</t>
   </si>
   <si>
-    <t>if Depth Mode = COLUMN or VALUE, then enter the depth units for the corresponding values ('m', 'cm', 'ft', 'in')
-leave blank if Depth Mode = CATEGORY or Depth Mode is blank</t>
-  </si>
-  <si>
     <t>column indicating QAQC flags of temperature measurements
 leave blank if no flags provided</t>
   </si>
@@ -313,25 +228,9 @@
 leave blank if unknown</t>
   </si>
   <si>
-    <t>indicates whether the timezone information is a constant UTC offset (UTCOFFSET), is provided as a separate column in the file (COLUMN), or is included within the Datetime/Time column (TIMESTAMP). see definitions below</t>
-  </si>
-  <si>
-    <t>if Station Mode = STATION, then  enter the station code for this file.
-if Station Mode = COLUMN, then enter the column name containing the station codes</t>
-  </si>
-  <si>
-    <t>indicates whether file contains data for a single station (STATION), or contains a column with varying stations (COLUMN). see definitions below</t>
-  </si>
-  <si>
     <t>6. Fix any validation or other errors that are reported (if any), and click Submit to try again.</t>
   </si>
   <si>
-    <t>5. Click Submit to validate and import each file into AKTEMP</t>
-  </si>
-  <si>
-    <t>notes</t>
-  </si>
-  <si>
     <t>Coho Creek</t>
   </si>
   <si>
@@ -353,9 +252,6 @@
     <t>-9999,NA</t>
   </si>
   <si>
-    <t>File containing continuous measurements (data logger) collected at a single station (Coho Creek). Timestamps in a column named 'datetime' with timezone information included in timestamp. Depths also recorded and provided in column named 'depth_m' in units of meters. Temperatures in a column named 'temp_c' with units of degC. Missing values indicated by '-9999' or 'NA'. Data logger has unkown accuracy (&lt; 0.25 C) and pre/post bath check was not performed. File has not been reviewed.</t>
-  </si>
-  <si>
     <t>File contains vertical profiles (measurements at multiple depths) at a single station (Great Pond). Dates and times provided in separate columns ('date' and 'time') with timestamps all in AKDT (UTC-8). Temperature measurements in column named 'temperature' with units of degC. File has been reviewed, but no flags provided indicating all data are valid (no outliers or erroneous values)</t>
   </si>
   <si>
@@ -401,16 +297,142 @@
     <t>Template and instructions for creating a configurations table for batch importing data files into AKTEMP</t>
   </si>
   <si>
-    <t>2. Copy and paste list of file names from Batch File Import Table on AKTEMP to the FILES sheet in this workbook</t>
-  </si>
-  <si>
     <t>3. Fill in the file configuration columns on the FILES sheet</t>
   </si>
   <si>
-    <t>4. Copy and paste all rows from the FILES sheet (excluding the filename and the header row) to the Batch File Import table in AKTEMP</t>
-  </si>
-  <si>
     <t>AKTEMP Batch Import Files Template</t>
+  </si>
+  <si>
+    <t>Station Code</t>
+  </si>
+  <si>
+    <t>Station Column</t>
+  </si>
+  <si>
+    <t>UTC Offset</t>
+  </si>
+  <si>
+    <t>Timezone Column</t>
+  </si>
+  <si>
+    <t>Depth Category</t>
+  </si>
+  <si>
+    <t>Depth Column</t>
+  </si>
+  <si>
+    <t>Skip Lines</t>
+  </si>
+  <si>
+    <t>File containing continuous measurements (data logger) collected at a single station (Coho Creek). First two lines in file contains metadata that should be skipped (column names are on third line). Timestamps in a column named 'datetime' with timezone information included in timestamp. Depths also recorded and provided in column named 'depth_m' in units of meters. Temperatures in a column named 'temp_c' with units of degC. Missing values indicated by '-9999' or 'NA'. Data logger has unkown accuracy (&lt; 0.25 C) and pre/post bath check was not performed. File has not been reviewed.</t>
+  </si>
+  <si>
+    <t>Numeric Depth</t>
+  </si>
+  <si>
+    <t>copy and paste filename column from website to FILES sheet</t>
+  </si>
+  <si>
+    <t>Integers (0, 1, 2, …)</t>
+  </si>
+  <si>
+    <t>number of lines to skip when reading the file (excluding header row specifying column names). Default=0 (zero) indicating the first line contains the column names. Used to exclude extraneous metadata at start of file.</t>
+  </si>
+  <si>
+    <t>valid station code</t>
+  </si>
+  <si>
+    <t>valid column name</t>
+  </si>
+  <si>
+    <t>code of station where the data in this file was collected</t>
+  </si>
+  <si>
+    <t>column name containing station code associated with each measurement</t>
+  </si>
+  <si>
+    <t>if Timezone Mode = COLUMN</t>
+  </si>
+  <si>
+    <t>if Timezone Mode = UTCOFFSET</t>
+  </si>
+  <si>
+    <t>if file contains data for single station</t>
+  </si>
+  <si>
+    <t>if file contains data for multiple stations</t>
+  </si>
+  <si>
+    <t>GUESS, UTCOFFSET, COLUMN, TIMESTAMP</t>
+  </si>
+  <si>
+    <t>indicates whether the timezone information is unknown and should be guessed from file (GUESS), is a constant UTC offset (UTCOFFSET), is provided as a separate column in the file (COLUMN), or is included within the Datetime/Time column (TIMESTAMP). see definitions below</t>
+  </si>
+  <si>
+    <t>integer (-9, -8, -7, 0)</t>
+  </si>
+  <si>
+    <t>column name containing the UTC offset in hours
+leave blank if Timezone Mode is not COLUMN</t>
+  </si>
+  <si>
+    <t>enter the UTC offset in hours ('-9' for AKST, '-8' for AKDT or PST, '-7' for PDT, '0' for UTC)
+leave blank if Timezone Mode is not UTCOFFSET</t>
+  </si>
+  <si>
+    <t>BOTTOM, MID-DEPTH, SURFACE</t>
+  </si>
+  <si>
+    <t>numeric value</t>
+  </si>
+  <si>
+    <t>If Numeric Depth or Depth Category is not blank</t>
+  </si>
+  <si>
+    <t>approximate numeric depth at which all measurements were collected. If depths varied over deployment, enter depth at start of deployment.</t>
+  </si>
+  <si>
+    <t>column name containing the numeric depth of each measurement</t>
+  </si>
+  <si>
+    <t>depth units for the corresponding numeric depth values ('m', 'cm', 'ft', 'in')
+leave blank if Numeric Depth and Depth Column are both blank</t>
+  </si>
+  <si>
+    <t>GUESS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">If the UTC Offset of the recorded timestamps are not known (ie do not know if timestamps were in standard or daylight savings time), then the server will guess based on the local timezone of the associated station (eg US/Alaska), and the UTC Offset at the time of the first timestamp. For example, if the first timestamp is in winter and the station is in US/Alaska timezone, then the UTC offset for all timestamps is assumed to be -9 (AK Standard Time). If the first timestamp is in summer, then the UTC offset is assumed to be -8 (AK Daylight Time). </t>
+  </si>
+  <si>
+    <t>Depth Category:</t>
+  </si>
+  <si>
+    <t>BOTTOM</t>
+  </si>
+  <si>
+    <t>SURFACE</t>
+  </si>
+  <si>
+    <t>At or near the bottom of the water column</t>
+  </si>
+  <si>
+    <t>Middle of water column</t>
+  </si>
+  <si>
+    <t>Near the surface</t>
+  </si>
+  <si>
+    <t>depth category at which all measurements were collected, see definitions below</t>
+  </si>
+  <si>
+    <t>2. Copy and paste list of filenames from Batch File Import Table on AKTEMP to the FILES sheet in this workbook</t>
+  </si>
+  <si>
+    <t>4. Copy and paste all rows from the FILES sheet (excluding the filename column and the header row) to the Batch File Import table in AKTEMP</t>
+  </si>
+  <si>
+    <t>5. Click Submit to validate and upload each file to AKTEMP</t>
   </si>
 </sst>
 </file>
@@ -617,7 +639,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -803,8 +825,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="21">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -932,15 +960,6 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right/>
       <top style="thin">
         <color indexed="64"/>
@@ -1082,7 +1101,7 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1115,13 +1134,10 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="42"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1130,33 +1146,27 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1178,36 +1188,33 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="14" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -1220,14 +1227,38 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="43">
@@ -1395,8 +1426,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="B16:E34" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5" tableBorderDxfId="4">
-  <autoFilter ref="B16:E34" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="B16:E37" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5" tableBorderDxfId="4">
+  <autoFilter ref="B16:E37" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="4">
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Column" dataDxfId="3"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Required" dataDxfId="2"/>
@@ -1704,18 +1735,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K49"/>
+  <dimension ref="A1:K51"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.33203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="27.83203125" style="1" customWidth="1"/>
     <col min="3" max="3" width="31.5" style="1" customWidth="1"/>
-    <col min="4" max="4" width="34.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35" style="1" customWidth="1"/>
     <col min="5" max="5" width="96.83203125" style="1" customWidth="1"/>
     <col min="6" max="10" width="10.33203125" style="1" customWidth="1"/>
     <col min="11" max="16384" width="10.83203125" style="1"/>
@@ -1723,15 +1752,15 @@
   <sheetData>
     <row r="1" spans="1:5" ht="24" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
-        <v>124</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="37">
-        <v>44812</v>
+      <c r="B3" s="32">
+        <v>44831</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -1743,7 +1772,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>120</v>
+        <v>88</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -1751,15 +1780,15 @@
       <c r="B6" s="4"/>
     </row>
     <row r="7" spans="1:5" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="38" t="s">
-        <v>118</v>
-      </c>
-      <c r="B7" s="43" t="s">
-        <v>119</v>
-      </c>
-      <c r="C7" s="43"/>
-      <c r="D7" s="43"/>
-      <c r="E7" s="43"/>
+      <c r="A7" s="33" t="s">
+        <v>86</v>
+      </c>
+      <c r="B7" s="38" t="s">
+        <v>87</v>
+      </c>
+      <c r="C7" s="38"/>
+      <c r="D7" s="38"/>
+      <c r="E7" s="38"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
@@ -1770,37 +1799,37 @@
         <v>2</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>117</v>
+        <v>85</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="B10" s="4" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="5"/>
       <c r="B11" s="4" t="s">
-        <v>122</v>
+        <v>89</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="5"/>
       <c r="B12" s="4" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="5"/>
       <c r="B13" s="4" t="s">
-        <v>96</v>
+        <v>133</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="5"/>
       <c r="B14" s="4" t="s">
-        <v>95</v>
+        <v>66</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -1810,13 +1839,13 @@
       <c r="A16" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B16" s="28" t="s">
-        <v>46</v>
-      </c>
-      <c r="C16" s="29" t="s">
+      <c r="B16" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="C16" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="D16" s="28" t="s">
+      <c r="D16" s="25" t="s">
         <v>5</v>
       </c>
       <c r="E16" s="1" t="s">
@@ -1825,398 +1854,437 @@
     </row>
     <row r="17" spans="1:11" ht="20" x14ac:dyDescent="0.25">
       <c r="A17" s="5"/>
-      <c r="B17" s="30" t="s">
-        <v>28</v>
-      </c>
-      <c r="C17" s="31" t="s">
-        <v>73</v>
-      </c>
-      <c r="D17" s="30"/>
-      <c r="E17" s="32" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" ht="20" x14ac:dyDescent="0.25">
+      <c r="B17" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="D17" s="27"/>
+      <c r="E17" s="29" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A18" s="5"/>
-      <c r="B18" s="30" t="s">
-        <v>29</v>
-      </c>
-      <c r="C18" s="31" t="s">
-        <v>73</v>
-      </c>
-      <c r="D18" s="33" t="s">
-        <v>77</v>
-      </c>
-      <c r="E18" s="34" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" ht="40" x14ac:dyDescent="0.25">
+      <c r="B18" s="27" t="s">
+        <v>97</v>
+      </c>
+      <c r="C18" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="D18" s="27" t="s">
+        <v>101</v>
+      </c>
+      <c r="E18" s="29" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="20" x14ac:dyDescent="0.25">
       <c r="A19" s="5"/>
-      <c r="B19" s="30" t="s">
-        <v>30</v>
-      </c>
-      <c r="C19" s="31" t="s">
-        <v>73</v>
-      </c>
-      <c r="D19" s="33" t="s">
-        <v>78</v>
-      </c>
-      <c r="E19" s="34" t="s">
-        <v>94</v>
+      <c r="B19" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="D19" s="30" t="s">
+        <v>55</v>
+      </c>
+      <c r="E19" s="31" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="40" x14ac:dyDescent="0.25">
       <c r="A20" s="5"/>
-      <c r="B20" s="30" t="s">
-        <v>31</v>
-      </c>
-      <c r="C20" s="31" t="s">
-        <v>73</v>
-      </c>
-      <c r="D20" s="30"/>
-      <c r="E20" s="34" t="s">
-        <v>93</v>
+      <c r="B20" s="27" t="s">
+        <v>91</v>
+      </c>
+      <c r="C20" s="28" t="s">
+        <v>109</v>
+      </c>
+      <c r="D20" s="30" t="s">
+        <v>103</v>
+      </c>
+      <c r="E20" s="31" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="40" x14ac:dyDescent="0.25">
       <c r="A21" s="5"/>
-      <c r="B21" s="30" t="s">
-        <v>32</v>
-      </c>
-      <c r="C21" s="31" t="s">
-        <v>73</v>
-      </c>
-      <c r="D21" s="33"/>
-      <c r="E21" s="32" t="s">
-        <v>55</v>
+      <c r="B21" s="27" t="s">
+        <v>92</v>
+      </c>
+      <c r="C21" s="28" t="s">
+        <v>110</v>
+      </c>
+      <c r="D21" s="27" t="s">
+        <v>104</v>
+      </c>
+      <c r="E21" s="31" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="40" x14ac:dyDescent="0.25">
       <c r="A22" s="5"/>
-      <c r="B22" s="30" t="s">
+      <c r="B22" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="C22" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="D22" s="27" t="s">
+        <v>104</v>
+      </c>
+      <c r="E22" s="29" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" ht="40" x14ac:dyDescent="0.25">
+      <c r="A23" s="5"/>
+      <c r="B23" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="C23" s="28"/>
+      <c r="D23" s="30"/>
+      <c r="E23" s="29" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="B24" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="C24" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="D24" s="50" t="s">
+        <v>111</v>
+      </c>
+      <c r="E24" s="29" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" ht="40" x14ac:dyDescent="0.25">
+      <c r="B25" s="27" t="s">
+        <v>93</v>
+      </c>
+      <c r="C25" s="28" t="s">
+        <v>108</v>
+      </c>
+      <c r="D25" s="30" t="s">
+        <v>113</v>
+      </c>
+      <c r="E25" s="29" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" ht="40" x14ac:dyDescent="0.25">
+      <c r="B26" s="27" t="s">
+        <v>94</v>
+      </c>
+      <c r="C26" s="28" t="s">
+        <v>107</v>
+      </c>
+      <c r="D26" s="30"/>
+      <c r="E26" s="29" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" ht="20" x14ac:dyDescent="0.25">
+      <c r="B27" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="C27" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="D27" s="30" t="s">
+        <v>104</v>
+      </c>
+      <c r="E27" s="29" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" ht="20" x14ac:dyDescent="0.25">
+      <c r="B28" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="C28" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="D28" s="27"/>
+      <c r="E28" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="K28" s="13"/>
+    </row>
+    <row r="29" spans="1:11" ht="40" x14ac:dyDescent="0.25">
+      <c r="B29" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="C22" s="31"/>
-      <c r="D22" s="33"/>
-      <c r="E22" s="32" t="s">
+      <c r="C29" s="28"/>
+      <c r="D29" s="27"/>
+      <c r="E29" s="29" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" ht="40" x14ac:dyDescent="0.25">
+      <c r="B30" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="C30" s="28"/>
+      <c r="D30" s="30" t="s">
+        <v>104</v>
+      </c>
+      <c r="E30" s="29" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" ht="20" x14ac:dyDescent="0.25">
+      <c r="B31" s="27" t="s">
+        <v>95</v>
+      </c>
+      <c r="C31" s="28"/>
+      <c r="D31" s="30" t="s">
+        <v>116</v>
+      </c>
+      <c r="E31" s="29" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" ht="40" x14ac:dyDescent="0.25">
+      <c r="B32" s="27" t="s">
+        <v>99</v>
+      </c>
+      <c r="C32" s="28"/>
+      <c r="D32" s="30" t="s">
+        <v>117</v>
+      </c>
+      <c r="E32" s="29" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="20" x14ac:dyDescent="0.25">
+      <c r="B33" s="27" t="s">
+        <v>96</v>
+      </c>
+      <c r="C33" s="28"/>
+      <c r="D33" s="30" t="s">
+        <v>104</v>
+      </c>
+      <c r="E33" s="29" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="40" x14ac:dyDescent="0.25">
+      <c r="B34" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="C34" s="28" t="s">
+        <v>118</v>
+      </c>
+      <c r="D34" s="27"/>
+      <c r="E34" s="29" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="40" x14ac:dyDescent="0.25">
+      <c r="B35" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="C35" s="28"/>
+      <c r="D35" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="E35" s="29" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="40" x14ac:dyDescent="0.25">
+      <c r="B36" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="C36" s="28"/>
+      <c r="D36" s="30" t="s">
+        <v>57</v>
+      </c>
+      <c r="E36" s="29" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="80" x14ac:dyDescent="0.25">
+      <c r="B37" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="C37" s="28"/>
+      <c r="D37" s="30" t="s">
+        <v>57</v>
+      </c>
+      <c r="E37" s="29" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="B23" s="30" t="s">
-        <v>34</v>
-      </c>
-      <c r="C23" s="31" t="s">
-        <v>73</v>
-      </c>
-      <c r="D23" s="33" t="s">
-        <v>79</v>
-      </c>
-      <c r="E23" s="32" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" ht="80" x14ac:dyDescent="0.25">
-      <c r="B24" s="30" t="s">
-        <v>35</v>
-      </c>
-      <c r="C24" s="31" t="s">
-        <v>72</v>
-      </c>
-      <c r="D24" s="33"/>
-      <c r="E24" s="32" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" ht="20" x14ac:dyDescent="0.25">
-      <c r="B25" s="30" t="s">
+    <row r="39" spans="1:6" ht="19" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B39" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="C39" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="D39" s="39" t="s">
         <v>39</v>
       </c>
-      <c r="C25" s="31" t="s">
-        <v>73</v>
-      </c>
-      <c r="D25" s="33"/>
-      <c r="E25" s="32" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" ht="20" x14ac:dyDescent="0.25">
-      <c r="B26" s="30" t="s">
+      <c r="E39" s="40"/>
+    </row>
+    <row r="40" spans="1:6" ht="19" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B40" s="22"/>
+      <c r="C40" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="D40" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="C26" s="31" t="s">
-        <v>73</v>
-      </c>
-      <c r="D26" s="30"/>
-      <c r="E26" s="32" t="s">
-        <v>70</v>
-      </c>
-      <c r="K26" s="13"/>
-    </row>
-    <row r="27" spans="1:11" ht="40" x14ac:dyDescent="0.25">
-      <c r="B27" s="30" t="s">
+      <c r="E40" s="42"/>
+    </row>
+    <row r="41" spans="1:6" ht="19" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B41" s="23"/>
+      <c r="C41" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="D41" s="43" t="s">
         <v>41</v>
       </c>
-      <c r="C27" s="31"/>
-      <c r="D27" s="30"/>
-      <c r="E27" s="32" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" ht="40" x14ac:dyDescent="0.25">
-      <c r="B28" s="30" t="s">
-        <v>42</v>
-      </c>
-      <c r="C28" s="31"/>
-      <c r="D28" s="30"/>
-      <c r="E28" s="32" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" ht="80" x14ac:dyDescent="0.25">
-      <c r="B29" s="30" t="s">
-        <v>36</v>
-      </c>
-      <c r="C29" s="31"/>
-      <c r="D29" s="33" t="s">
-        <v>80</v>
-      </c>
-      <c r="E29" s="32" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" ht="120" x14ac:dyDescent="0.25">
-      <c r="B30" s="30" t="s">
-        <v>37</v>
-      </c>
-      <c r="C30" s="31" t="s">
-        <v>74</v>
-      </c>
-      <c r="D30" s="33"/>
-      <c r="E30" s="32" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="B31" s="30" t="s">
-        <v>38</v>
-      </c>
-      <c r="C31" s="31" t="s">
-        <v>75</v>
-      </c>
-      <c r="D31" s="30"/>
-      <c r="E31" s="32" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" ht="40" x14ac:dyDescent="0.25">
-      <c r="B32" s="30" t="s">
-        <v>43</v>
-      </c>
-      <c r="C32" s="31"/>
-      <c r="D32" s="33" t="s">
-        <v>81</v>
-      </c>
-      <c r="E32" s="32" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" ht="40" x14ac:dyDescent="0.25">
-      <c r="B33" s="30" t="s">
-        <v>44</v>
-      </c>
-      <c r="C33" s="31"/>
-      <c r="D33" s="33" t="s">
-        <v>82</v>
-      </c>
-      <c r="E33" s="32" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" ht="80" x14ac:dyDescent="0.25">
-      <c r="B34" s="30" t="s">
-        <v>45</v>
-      </c>
-      <c r="C34" s="31"/>
-      <c r="D34" s="33" t="s">
-        <v>82</v>
-      </c>
-      <c r="E34" s="32" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B36" s="23" t="s">
-        <v>53</v>
-      </c>
-      <c r="C36" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="D36" s="44" t="s">
+      <c r="E41" s="44"/>
+    </row>
+    <row r="42" spans="1:6" ht="80" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B42" s="51" t="s">
+        <v>46</v>
+      </c>
+      <c r="C42" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="D42" s="54" t="s">
+        <v>123</v>
+      </c>
+      <c r="E42" s="55"/>
+    </row>
+    <row r="43" spans="1:6" ht="40" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B43" s="52"/>
+      <c r="C43" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="D43" s="41" t="s">
+        <v>47</v>
+      </c>
+      <c r="E43" s="42"/>
+    </row>
+    <row r="44" spans="1:6" ht="40" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B44" s="52"/>
+      <c r="C44" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="D44" s="41" t="s">
         <v>48</v>
       </c>
-      <c r="E36" s="45"/>
-    </row>
-    <row r="37" spans="1:6" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="24"/>
-      <c r="C37" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="D37" s="46" t="s">
+      <c r="E44" s="42"/>
+    </row>
+    <row r="45" spans="1:6" ht="58" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B45" s="53"/>
+      <c r="C45" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="D45" s="43" t="s">
         <v>49</v>
       </c>
-      <c r="E37" s="47"/>
-    </row>
-    <row r="38" spans="1:6" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="25"/>
-      <c r="C38" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="D38" s="48" t="s">
-        <v>50</v>
-      </c>
-      <c r="E38" s="49"/>
-    </row>
-    <row r="39" spans="1:6" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="23" t="s">
-        <v>54</v>
-      </c>
-      <c r="C39" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="D39" s="44" t="s">
-        <v>57</v>
-      </c>
-      <c r="E39" s="45"/>
-    </row>
-    <row r="40" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="25"/>
-      <c r="C40" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="D40" s="48" t="s">
+      <c r="E45" s="44"/>
+      <c r="F45" s="12"/>
+    </row>
+    <row r="46" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B46" s="24" t="s">
+        <v>124</v>
+      </c>
+      <c r="C46" s="15" t="s">
+        <v>125</v>
+      </c>
+      <c r="D46" s="39" t="s">
+        <v>127</v>
+      </c>
+      <c r="E46" s="40"/>
+      <c r="F46" s="12"/>
+    </row>
+    <row r="47" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B47" s="52"/>
+      <c r="C47" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="D47" s="41" t="s">
+        <v>128</v>
+      </c>
+      <c r="E47" s="42"/>
+      <c r="F47" s="12"/>
+    </row>
+    <row r="48" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B48" s="53"/>
+      <c r="C48" s="17" t="s">
+        <v>126</v>
+      </c>
+      <c r="D48" s="43" t="s">
+        <v>129</v>
+      </c>
+      <c r="E48" s="44"/>
+      <c r="F48" s="12"/>
+    </row>
+    <row r="49" spans="2:5" ht="20" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B49" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="E40" s="49"/>
-    </row>
-    <row r="41" spans="1:6" ht="40" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="23" t="s">
-        <v>56</v>
-      </c>
-      <c r="C41" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="D41" s="44" t="s">
+      <c r="C49" s="14">
+        <v>1</v>
+      </c>
+      <c r="D49" s="34" t="s">
         <v>59</v>
       </c>
-      <c r="E41" s="45"/>
-    </row>
-    <row r="42" spans="1:6" ht="40" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="26"/>
-      <c r="C42" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="D42" s="46" t="s">
+      <c r="E49" s="35"/>
+    </row>
+    <row r="50" spans="2:5" ht="20" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B50" s="18"/>
+      <c r="C50" s="14">
+        <v>2</v>
+      </c>
+      <c r="D50" s="34" t="s">
         <v>60</v>
       </c>
-      <c r="E42" s="47"/>
-    </row>
-    <row r="43" spans="1:6" ht="58" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="27"/>
-      <c r="C43" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="D43" s="48" t="s">
+      <c r="E50" s="35"/>
+    </row>
+    <row r="51" spans="2:5" ht="20" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B51" s="19"/>
+      <c r="C51" s="20">
+        <v>3</v>
+      </c>
+      <c r="D51" s="36" t="s">
         <v>61</v>
       </c>
-      <c r="E43" s="49"/>
-      <c r="F43" s="12"/>
-    </row>
-    <row r="44" spans="1:6" ht="37" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="23" t="s">
-        <v>63</v>
-      </c>
-      <c r="C44" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="D44" s="44" t="s">
-        <v>64</v>
-      </c>
-      <c r="E44" s="45"/>
-    </row>
-    <row r="45" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="26"/>
-      <c r="C45" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="D45" s="46" t="s">
-        <v>66</v>
-      </c>
-      <c r="E45" s="47"/>
-    </row>
-    <row r="46" spans="1:6" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="27"/>
-      <c r="C46" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="D46" s="48" t="s">
-        <v>67</v>
-      </c>
-      <c r="E46" s="49"/>
-    </row>
-    <row r="47" spans="1:6" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="26" t="s">
-        <v>83</v>
-      </c>
-      <c r="C47" s="15">
-        <v>1</v>
-      </c>
-      <c r="D47" s="50" t="s">
-        <v>84</v>
-      </c>
-      <c r="E47" s="51"/>
-    </row>
-    <row r="48" spans="1:6" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="20"/>
-      <c r="C48" s="15">
-        <v>2</v>
-      </c>
-      <c r="D48" s="39" t="s">
-        <v>85</v>
-      </c>
-      <c r="E48" s="40"/>
-    </row>
-    <row r="49" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B49" s="21"/>
-      <c r="C49" s="22">
-        <v>3</v>
-      </c>
-      <c r="D49" s="41" t="s">
-        <v>86</v>
-      </c>
-      <c r="E49" s="42"/>
+      <c r="E51" s="37"/>
     </row>
   </sheetData>
-  <mergeCells count="15">
+  <mergeCells count="14">
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="D45:E45"/>
     <mergeCell ref="D48:E48"/>
     <mergeCell ref="D49:E49"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="D41:E41"/>
     <mergeCell ref="D43:E43"/>
-    <mergeCell ref="D44:E44"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="D47:E47"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <tableParts count="1">
@@ -2227,99 +2295,114 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:R45"/>
+  <dimension ref="A1:U45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K20" sqref="K20"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="34.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.33203125" style="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17" style="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.6640625" style="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="28" style="8" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16" style="8" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.5" style="8" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.1640625" style="8" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="25.6640625" style="8" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="22.83203125" style="8" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="17.83203125" style="8" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15" style="8" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.5" style="8" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.1640625" style="8" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.6640625" style="8" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="20" style="8" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.83203125" style="7" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="12.1640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="10.83203125" style="7"/>
+    <col min="1" max="1" width="34.6640625" style="45" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.33203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.1640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.83203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19" style="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="28" style="8" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16" style="8" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.5" style="8" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13" style="8" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21.6640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="25.6640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="22.83203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17.83203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15" style="8" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="19.1640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="18.6640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="17.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="20" style="7" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11.83203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="12.1640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="10.83203125" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="G1" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="H1" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="I1" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="J1" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="K1" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="L1" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="M1" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="N1" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="O1" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="P1" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q1" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="R1" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="E1" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="F1" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="G1" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="H1" s="10" t="s">
+      <c r="S1" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="I1" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="J1" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="K1" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="L1" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="M1" s="10" t="s">
+      <c r="T1" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="N1" s="9" t="s">
+      <c r="U1" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="O1" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="P1" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q1" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="R1" s="10" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
       <c r="O2" s="7"/>
       <c r="P2" s="7"/>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
       <c r="F3" s="7"/>
@@ -2327,67 +2410,67 @@
       <c r="O3" s="7"/>
       <c r="P3" s="7"/>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
       <c r="P4" s="7"/>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D5" s="7"/>
       <c r="E5" s="7"/>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D6" s="7"/>
       <c r="E6" s="7"/>
       <c r="P6" s="7"/>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D7" s="7"/>
       <c r="E7" s="7"/>
       <c r="P7" s="7"/>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D8" s="7"/>
       <c r="E8" s="7"/>
       <c r="P8" s="7"/>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D9" s="7"/>
       <c r="E9" s="7"/>
       <c r="P9" s="7"/>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D10" s="7"/>
       <c r="E10" s="7"/>
       <c r="P10" s="7"/>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D11" s="7"/>
       <c r="E11" s="7"/>
       <c r="P11" s="7"/>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D12" s="7"/>
       <c r="E12" s="7"/>
       <c r="P12" s="7"/>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D13" s="7"/>
       <c r="E13" s="7"/>
       <c r="P13" s="7"/>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D14" s="7"/>
       <c r="E14" s="7"/>
       <c r="P14" s="7"/>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D15" s="7"/>
       <c r="E15" s="7"/>
       <c r="P15" s="7"/>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="7"/>
       <c r="E16" s="7"/>
       <c r="P16" s="7"/>
@@ -2544,361 +2627,377 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49586CA0-D21C-204E-A207-ACD740665BED}">
-  <dimension ref="A1:U10"/>
+  <dimension ref="A1:V10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="L3" sqref="L3"/>
+      <selection pane="bottomRight" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="67.6640625" customWidth="1"/>
-    <col min="2" max="2" width="40.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="28" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.1640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="25.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="22.83203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="17.83203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.1640625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="20" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="11.83203125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="40.5" style="48" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" style="48" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="28" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="25.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="22.83203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.83203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="19.1640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="20" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="12.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="21" x14ac:dyDescent="0.2">
-      <c r="A1" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="B1" s="9" t="s">
+    <row r="1" spans="1:22" ht="21" x14ac:dyDescent="0.2">
+      <c r="A1" s="47" t="s">
+        <v>76</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="H1" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="I1" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="J1" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="K1" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="L1" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="M1" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="N1" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="O1" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="P1" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q1" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="R1" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="S1" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="E1" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="F1" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="G1" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="H1" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="I1" s="10" t="s">
+      <c r="T1" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="J1" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="K1" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="L1" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="M1" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="N1" s="10" t="s">
+      <c r="U1" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="O1" s="9" t="s">
+      <c r="V1" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="P1" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q1" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="R1" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="S1" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="U1" s="35" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="2" spans="1:21" ht="176" x14ac:dyDescent="0.25">
-      <c r="A2" s="36" t="s">
-        <v>102</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="C2" s="8" t="s">
+    </row>
+    <row r="2" spans="1:22" ht="176" x14ac:dyDescent="0.25">
+      <c r="A2" s="46" t="s">
+        <v>71</v>
+      </c>
+      <c r="B2" s="49" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2" s="8">
+        <v>0</v>
+      </c>
+      <c r="D2" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="F2" s="48"/>
+      <c r="G2" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="J2" s="8">
+        <v>-9</v>
+      </c>
+      <c r="K2" s="8"/>
+      <c r="L2" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="M2" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="N2" s="8">
+        <v>-9999</v>
+      </c>
+      <c r="O2" s="8"/>
+      <c r="P2" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q2" s="48"/>
+      <c r="R2" s="48"/>
+      <c r="S2" s="8"/>
+      <c r="T2" s="8">
+        <v>1</v>
+      </c>
+      <c r="U2" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="V2" s="8" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" ht="242" x14ac:dyDescent="0.25">
+      <c r="A3" s="46" t="s">
         <v>98</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="B3" s="49" t="s">
+        <v>77</v>
+      </c>
+      <c r="C3" s="8">
+        <v>2</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="F3" s="48"/>
+      <c r="G3" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="7"/>
-      <c r="H2" s="8" t="s">
+      <c r="H3" s="8"/>
+      <c r="I3" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="J3" s="8"/>
+      <c r="K3" s="8"/>
+      <c r="L3" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="M3" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="N3" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="O3" s="8"/>
+      <c r="P3" s="8"/>
+      <c r="Q3" s="8"/>
+      <c r="R3" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="S3" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="T3" s="8"/>
+      <c r="U3" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="V3" s="8" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" ht="198" x14ac:dyDescent="0.25">
+      <c r="A4" s="46" t="s">
+        <v>72</v>
+      </c>
+      <c r="B4" s="49" t="s">
+        <v>78</v>
+      </c>
+      <c r="C4" s="8">
+        <v>0</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="8">
-        <v>-9</v>
-      </c>
-      <c r="J2" s="8" t="s">
+      <c r="J4" s="8">
+        <v>-8</v>
+      </c>
+      <c r="K4" s="8"/>
+      <c r="L4" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="8" t="s">
+      <c r="M4" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="L2" s="8">
+      <c r="N4" s="8">
         <v>-9999</v>
       </c>
-      <c r="M2" s="8"/>
-      <c r="N2" s="8" t="s">
+      <c r="O4" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="O2" s="8" t="s">
+      <c r="P4" s="8"/>
+      <c r="Q4" s="8">
+        <v>1</v>
+      </c>
+      <c r="R4" s="8"/>
+      <c r="S4" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="T4" s="8">
+        <v>1</v>
+      </c>
+      <c r="U4" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="V4" s="8" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" ht="149" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="46" t="s">
+        <v>84</v>
+      </c>
+      <c r="B5" s="49" t="s">
+        <v>80</v>
+      </c>
+      <c r="C5" s="8">
+        <v>0</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="F5" s="48"/>
+      <c r="G5" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="J5" s="48"/>
+      <c r="K5" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="L5" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="P2" s="7"/>
-      <c r="Q2" s="7">
+      <c r="M5" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="N5" s="8"/>
+      <c r="O5" s="11"/>
+      <c r="P5" s="8"/>
+      <c r="Q5" s="48"/>
+      <c r="R5" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="S5" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="T5" s="8"/>
+      <c r="U5" s="8"/>
+      <c r="V5" s="8"/>
+    </row>
+    <row r="6" spans="1:22" ht="155" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="46" t="s">
+        <v>74</v>
+      </c>
+      <c r="B6" s="49" t="s">
+        <v>79</v>
+      </c>
+      <c r="C6" s="8">
+        <v>0</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="F6" s="48"/>
+      <c r="G6" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="H6" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="I6" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="J6" s="8">
+        <v>-8</v>
+      </c>
+      <c r="K6" s="8"/>
+      <c r="L6" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="M6" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="N6" s="11"/>
+      <c r="O6" s="8"/>
+      <c r="P6" s="8"/>
+      <c r="Q6" s="8"/>
+      <c r="R6" s="8"/>
+      <c r="S6" s="8"/>
+      <c r="T6" s="8"/>
+      <c r="U6" s="8"/>
+      <c r="V6" s="8" t="b">
         <v>1</v>
       </c>
-      <c r="R2" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="S2" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:21" ht="198" x14ac:dyDescent="0.25">
-      <c r="A3" s="36" t="s">
-        <v>105</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="G3" s="7"/>
-      <c r="H3" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="I3" s="8"/>
-      <c r="J3" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="K3" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="L3" s="11" t="s">
-        <v>104</v>
-      </c>
-      <c r="M3" s="8"/>
-      <c r="N3" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="O3" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="P3" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q3" s="7"/>
-      <c r="R3" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="S3" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:21" ht="198" x14ac:dyDescent="0.25">
-      <c r="A4" s="36" t="s">
-        <v>103</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="G4" s="7"/>
-      <c r="H4" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="I4" s="8">
-        <v>-8</v>
-      </c>
-      <c r="J4" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="K4" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="L4" s="8">
-        <v>-9999</v>
-      </c>
-      <c r="M4" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="N4" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="O4" s="8">
-        <v>1</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q4" s="7">
-        <v>1</v>
-      </c>
-      <c r="R4" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="S4" s="7" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:21" ht="149" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="36" t="s">
-        <v>116</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="G5" s="7"/>
-      <c r="H5" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="I5" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="J5" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="K5" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="L5" s="8"/>
-      <c r="M5" s="11"/>
-      <c r="N5" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="O5" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="Q5" s="7"/>
-      <c r="R5" s="7"/>
-      <c r="S5" s="7"/>
-    </row>
-    <row r="6" spans="1:21" ht="155" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="36" t="s">
-        <v>106</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H6" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="I6" s="8">
-        <v>-8</v>
-      </c>
-      <c r="J6" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="K6" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="L6" s="11"/>
-      <c r="M6" s="8"/>
-      <c r="N6" s="8"/>
-      <c r="O6" s="8"/>
-      <c r="P6" s="7"/>
-      <c r="Q6" s="7"/>
-      <c r="R6" s="7"/>
-      <c r="S6" s="7" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:21" ht="21" x14ac:dyDescent="0.2">
-      <c r="B7" s="7"/>
+    </row>
+    <row r="7" spans="1:22" ht="21" x14ac:dyDescent="0.2">
+      <c r="B7" s="8"/>
       <c r="C7" s="8"/>
       <c r="D7" s="8"/>
-      <c r="E7" s="7"/>
+      <c r="E7" s="8"/>
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
-      <c r="H7" s="8"/>
+      <c r="H7" s="7"/>
       <c r="I7" s="8"/>
       <c r="J7" s="8"/>
       <c r="K7" s="8"/>
@@ -2907,17 +3006,20 @@
       <c r="N7" s="8"/>
       <c r="O7" s="8"/>
       <c r="P7" s="8"/>
-      <c r="Q7" s="7"/>
-      <c r="R7" s="7"/>
-      <c r="S7" s="7"/>
-    </row>
-    <row r="8" spans="1:21" ht="21" x14ac:dyDescent="0.2">
-      <c r="B8" s="7"/>
+      <c r="Q7" s="8"/>
+      <c r="R7" s="8"/>
+      <c r="S7" s="8"/>
+      <c r="T7" s="7"/>
+      <c r="U7" s="7"/>
+      <c r="V7" s="7"/>
+    </row>
+    <row r="8" spans="1:22" ht="21" x14ac:dyDescent="0.2">
+      <c r="B8" s="8"/>
       <c r="C8" s="8"/>
       <c r="D8" s="8"/>
-      <c r="E8" s="7"/>
+      <c r="E8" s="8"/>
       <c r="F8" s="7"/>
-      <c r="G8" s="8"/>
+      <c r="G8" s="7"/>
       <c r="H8" s="8"/>
       <c r="I8" s="8"/>
       <c r="J8" s="8"/>
@@ -2928,16 +3030,19 @@
       <c r="O8" s="8"/>
       <c r="P8" s="8"/>
       <c r="Q8" s="8"/>
-      <c r="R8" s="7"/>
-      <c r="S8" s="7"/>
-    </row>
-    <row r="9" spans="1:21" ht="21" x14ac:dyDescent="0.2">
-      <c r="B9" s="7"/>
+      <c r="R8" s="8"/>
+      <c r="S8" s="8"/>
+      <c r="T8" s="8"/>
+      <c r="U8" s="7"/>
+      <c r="V8" s="7"/>
+    </row>
+    <row r="9" spans="1:22" ht="21" x14ac:dyDescent="0.2">
+      <c r="B9" s="8"/>
       <c r="C9" s="8"/>
       <c r="D9" s="8"/>
-      <c r="E9" s="7"/>
+      <c r="E9" s="8"/>
       <c r="F9" s="7"/>
-      <c r="G9" s="8"/>
+      <c r="G9" s="7"/>
       <c r="H9" s="8"/>
       <c r="I9" s="8"/>
       <c r="J9" s="8"/>
@@ -2947,17 +3052,20 @@
       <c r="N9" s="8"/>
       <c r="O9" s="8"/>
       <c r="P9" s="8"/>
-      <c r="Q9" s="7"/>
-      <c r="R9" s="7"/>
-      <c r="S9" s="7"/>
-    </row>
-    <row r="10" spans="1:21" ht="21" x14ac:dyDescent="0.2">
-      <c r="B10" s="7"/>
+      <c r="Q9" s="8"/>
+      <c r="R9" s="8"/>
+      <c r="S9" s="8"/>
+      <c r="T9" s="7"/>
+      <c r="U9" s="7"/>
+      <c r="V9" s="7"/>
+    </row>
+    <row r="10" spans="1:22" ht="21" x14ac:dyDescent="0.2">
+      <c r="B10" s="8"/>
       <c r="C10" s="8"/>
       <c r="D10" s="8"/>
-      <c r="E10" s="7"/>
+      <c r="E10" s="8"/>
       <c r="F10" s="7"/>
-      <c r="G10" s="8"/>
+      <c r="G10" s="7"/>
       <c r="H10" s="8"/>
       <c r="I10" s="8"/>
       <c r="J10" s="8"/>
@@ -2967,9 +3075,12 @@
       <c r="N10" s="8"/>
       <c r="O10" s="8"/>
       <c r="P10" s="8"/>
-      <c r="Q10" s="7"/>
-      <c r="R10" s="7"/>
-      <c r="S10" s="7"/>
+      <c r="Q10" s="8"/>
+      <c r="R10" s="8"/>
+      <c r="S10" s="8"/>
+      <c r="T10" s="7"/>
+      <c r="U10" s="7"/>
+      <c r="V10" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/app/public/static/aktemp-files-template.xlsx
+++ b/app/public/static/aktemp-files-template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jeff/git/ecosheds/aktemp/app/public/static/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47B38C04-9F0D-BE46-80A5-830567A31B8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{239893A6-466C-BF4C-B0FC-8DD394C606C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-51200" yWindow="500" windowWidth="48220" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1194,6 +1194,45 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -1209,50 +1248,11 @@
     <xf numFmtId="14" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1783,12 +1783,12 @@
       <c r="A7" s="33" t="s">
         <v>86</v>
       </c>
-      <c r="B7" s="38" t="s">
+      <c r="B7" s="51" t="s">
         <v>87</v>
       </c>
-      <c r="C7" s="38"/>
-      <c r="D7" s="38"/>
-      <c r="E7" s="38"/>
+      <c r="C7" s="51"/>
+      <c r="D7" s="51"/>
+      <c r="E7" s="51"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
@@ -1958,7 +1958,7 @@
       <c r="C24" s="28" t="s">
         <v>54</v>
       </c>
-      <c r="D24" s="50" t="s">
+      <c r="D24" s="39" t="s">
         <v>111</v>
       </c>
       <c r="E24" s="29" t="s">
@@ -2064,28 +2064,28 @@
         <v>119</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="20" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" ht="40" x14ac:dyDescent="0.25">
       <c r="B33" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="C33" s="28" t="s">
+        <v>118</v>
+      </c>
+      <c r="D33" s="27"/>
+      <c r="E33" s="29" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="20" x14ac:dyDescent="0.25">
+      <c r="B34" s="27" t="s">
         <v>96</v>
       </c>
-      <c r="C33" s="28"/>
-      <c r="D33" s="30" t="s">
+      <c r="C34" s="28"/>
+      <c r="D34" s="30" t="s">
         <v>104</v>
       </c>
-      <c r="E33" s="29" t="s">
+      <c r="E34" s="29" t="s">
         <v>120</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" ht="40" x14ac:dyDescent="0.25">
-      <c r="B34" s="27" t="s">
-        <v>30</v>
-      </c>
-      <c r="C34" s="28" t="s">
-        <v>118</v>
-      </c>
-      <c r="D34" s="27"/>
-      <c r="E34" s="29" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="40" x14ac:dyDescent="0.25">
@@ -2134,33 +2134,33 @@
       <c r="C39" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="D39" s="39" t="s">
+      <c r="D39" s="43" t="s">
         <v>39</v>
       </c>
-      <c r="E39" s="40"/>
+      <c r="E39" s="44"/>
     </row>
     <row r="40" spans="1:6" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="22"/>
       <c r="C40" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="D40" s="41" t="s">
+      <c r="D40" s="45" t="s">
         <v>40</v>
       </c>
-      <c r="E40" s="42"/>
+      <c r="E40" s="46"/>
     </row>
     <row r="41" spans="1:6" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="23"/>
       <c r="C41" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="D41" s="43" t="s">
+      <c r="D41" s="52" t="s">
         <v>41</v>
       </c>
-      <c r="E41" s="44"/>
+      <c r="E41" s="53"/>
     </row>
     <row r="42" spans="1:6" ht="80" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="51" t="s">
+      <c r="B42" s="40" t="s">
         <v>46</v>
       </c>
       <c r="C42" s="15" t="s">
@@ -2172,34 +2172,34 @@
       <c r="E42" s="55"/>
     </row>
     <row r="43" spans="1:6" ht="40" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="52"/>
+      <c r="B43" s="41"/>
       <c r="C43" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="D43" s="41" t="s">
+      <c r="D43" s="45" t="s">
         <v>47</v>
       </c>
-      <c r="E43" s="42"/>
+      <c r="E43" s="46"/>
     </row>
     <row r="44" spans="1:6" ht="40" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="52"/>
+      <c r="B44" s="41"/>
       <c r="C44" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="D44" s="41" t="s">
+      <c r="D44" s="45" t="s">
         <v>48</v>
       </c>
-      <c r="E44" s="42"/>
+      <c r="E44" s="46"/>
     </row>
     <row r="45" spans="1:6" ht="58" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="53"/>
+      <c r="B45" s="42"/>
       <c r="C45" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="D45" s="43" t="s">
+      <c r="D45" s="52" t="s">
         <v>49</v>
       </c>
-      <c r="E45" s="44"/>
+      <c r="E45" s="53"/>
       <c r="F45" s="12"/>
     </row>
     <row r="46" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.25">
@@ -2209,32 +2209,32 @@
       <c r="C46" s="15" t="s">
         <v>125</v>
       </c>
-      <c r="D46" s="39" t="s">
+      <c r="D46" s="43" t="s">
         <v>127</v>
       </c>
-      <c r="E46" s="40"/>
+      <c r="E46" s="44"/>
       <c r="F46" s="12"/>
     </row>
     <row r="47" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="52"/>
+      <c r="B47" s="41"/>
       <c r="C47" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="D47" s="41" t="s">
+      <c r="D47" s="45" t="s">
         <v>128</v>
       </c>
-      <c r="E47" s="42"/>
+      <c r="E47" s="46"/>
       <c r="F47" s="12"/>
     </row>
     <row r="48" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="53"/>
+      <c r="B48" s="42"/>
       <c r="C48" s="17" t="s">
         <v>126</v>
       </c>
-      <c r="D48" s="43" t="s">
+      <c r="D48" s="52" t="s">
         <v>129</v>
       </c>
-      <c r="E48" s="44"/>
+      <c r="E48" s="53"/>
       <c r="F48" s="12"/>
     </row>
     <row r="49" spans="2:5" ht="20" customHeight="1" x14ac:dyDescent="0.25">
@@ -2244,30 +2244,30 @@
       <c r="C49" s="14">
         <v>1</v>
       </c>
-      <c r="D49" s="34" t="s">
+      <c r="D49" s="47" t="s">
         <v>59</v>
       </c>
-      <c r="E49" s="35"/>
+      <c r="E49" s="48"/>
     </row>
     <row r="50" spans="2:5" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B50" s="18"/>
       <c r="C50" s="14">
         <v>2</v>
       </c>
-      <c r="D50" s="34" t="s">
+      <c r="D50" s="47" t="s">
         <v>60</v>
       </c>
-      <c r="E50" s="35"/>
+      <c r="E50" s="48"/>
     </row>
     <row r="51" spans="2:5" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B51" s="19"/>
       <c r="C51" s="20">
         <v>3</v>
       </c>
-      <c r="D51" s="36" t="s">
+      <c r="D51" s="49" t="s">
         <v>61</v>
       </c>
-      <c r="E51" s="37"/>
+      <c r="E51" s="50"/>
     </row>
   </sheetData>
   <mergeCells count="14">
@@ -2301,12 +2301,12 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D7" sqref="D7"/>
+      <selection pane="bottomRight" activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="34.6640625" style="45" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="34.6640625" style="34" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.33203125" style="8" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.1640625" style="8" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.83203125" style="8" bestFit="1" customWidth="1"/>
@@ -2322,8 +2322,8 @@
     <col min="14" max="14" width="15" style="8" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="19.1640625" style="8" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="18.6640625" style="8" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="17.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="17.6640625" style="7" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="20" style="7" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="11.83203125" style="7" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="12.1640625" style="7" bestFit="1" customWidth="1"/>
@@ -2380,10 +2380,10 @@
         <v>99</v>
       </c>
       <c r="Q1" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="R1" s="10" t="s">
         <v>96</v>
-      </c>
-      <c r="R1" s="10" t="s">
-        <v>30</v>
       </c>
       <c r="S1" s="10" t="s">
         <v>35</v>
@@ -2633,14 +2633,14 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C3" sqref="C3"/>
+      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="67.6640625" customWidth="1"/>
-    <col min="2" max="2" width="40.5" style="48" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.33203125" style="48" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="40.5" style="37" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" style="37" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18.6640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="19" bestFit="1" customWidth="1"/>
@@ -2655,15 +2655,15 @@
     <col min="15" max="15" width="15" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="19.1640625" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="18.6640625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="17.6640625" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="20" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="11.83203125" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="12.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="21" x14ac:dyDescent="0.2">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="36" t="s">
         <v>76</v>
       </c>
       <c r="B1" s="10" t="s">
@@ -2715,10 +2715,10 @@
         <v>99</v>
       </c>
       <c r="R1" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="S1" s="10" t="s">
         <v>96</v>
-      </c>
-      <c r="S1" s="10" t="s">
-        <v>30</v>
       </c>
       <c r="T1" s="10" t="s">
         <v>35</v>
@@ -2731,10 +2731,10 @@
       </c>
     </row>
     <row r="2" spans="1:22" ht="176" x14ac:dyDescent="0.25">
-      <c r="A2" s="46" t="s">
+      <c r="A2" s="35" t="s">
         <v>71</v>
       </c>
-      <c r="B2" s="49" t="s">
+      <c r="B2" s="38" t="s">
         <v>75</v>
       </c>
       <c r="C2" s="8">
@@ -2746,7 +2746,7 @@
       <c r="E2" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="F2" s="48"/>
+      <c r="F2" s="37"/>
       <c r="G2" s="8" t="s">
         <v>7</v>
       </c>
@@ -2771,9 +2771,9 @@
       <c r="P2" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="Q2" s="48"/>
-      <c r="R2" s="48"/>
-      <c r="S2" s="8"/>
+      <c r="Q2" s="37"/>
+      <c r="R2" s="8"/>
+      <c r="S2" s="37"/>
       <c r="T2" s="8">
         <v>1</v>
       </c>
@@ -2785,10 +2785,10 @@
       </c>
     </row>
     <row r="3" spans="1:22" ht="242" x14ac:dyDescent="0.25">
-      <c r="A3" s="46" t="s">
+      <c r="A3" s="35" t="s">
         <v>98</v>
       </c>
-      <c r="B3" s="49" t="s">
+      <c r="B3" s="38" t="s">
         <v>77</v>
       </c>
       <c r="C3" s="8">
@@ -2800,7 +2800,7 @@
       <c r="E3" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="F3" s="48"/>
+      <c r="F3" s="37"/>
       <c r="G3" s="8" t="s">
         <v>7</v>
       </c>
@@ -2823,10 +2823,10 @@
       <c r="P3" s="8"/>
       <c r="Q3" s="8"/>
       <c r="R3" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="S3" s="8" t="s">
         <v>19</v>
-      </c>
-      <c r="S3" s="8" t="s">
-        <v>20</v>
       </c>
       <c r="T3" s="8"/>
       <c r="U3" s="8" t="b">
@@ -2837,10 +2837,10 @@
       </c>
     </row>
     <row r="4" spans="1:22" ht="198" x14ac:dyDescent="0.25">
-      <c r="A4" s="46" t="s">
+      <c r="A4" s="35" t="s">
         <v>72</v>
       </c>
-      <c r="B4" s="49" t="s">
+      <c r="B4" s="38" t="s">
         <v>78</v>
       </c>
       <c r="C4" s="8">
@@ -2880,10 +2880,10 @@
       <c r="Q4" s="8">
         <v>1</v>
       </c>
-      <c r="R4" s="8"/>
-      <c r="S4" s="8" t="s">
+      <c r="R4" s="8" t="s">
         <v>20</v>
       </c>
+      <c r="S4" s="8"/>
       <c r="T4" s="8">
         <v>1</v>
       </c>
@@ -2895,10 +2895,10 @@
       </c>
     </row>
     <row r="5" spans="1:22" ht="149" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="46" t="s">
+      <c r="A5" s="35" t="s">
         <v>84</v>
       </c>
-      <c r="B5" s="49" t="s">
+      <c r="B5" s="38" t="s">
         <v>80</v>
       </c>
       <c r="C5" s="8">
@@ -2910,7 +2910,7 @@
       <c r="E5" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="F5" s="48"/>
+      <c r="F5" s="37"/>
       <c r="G5" s="8" t="s">
         <v>7</v>
       </c>
@@ -2918,7 +2918,7 @@
       <c r="I5" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="J5" s="48"/>
+      <c r="J5" s="37"/>
       <c r="K5" s="8" t="s">
         <v>18</v>
       </c>
@@ -2931,22 +2931,22 @@
       <c r="N5" s="8"/>
       <c r="O5" s="11"/>
       <c r="P5" s="8"/>
-      <c r="Q5" s="48"/>
+      <c r="Q5" s="37"/>
       <c r="R5" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="S5" s="8" t="s">
         <v>82</v>
-      </c>
-      <c r="S5" s="8" t="s">
-        <v>83</v>
       </c>
       <c r="T5" s="8"/>
       <c r="U5" s="8"/>
       <c r="V5" s="8"/>
     </row>
     <row r="6" spans="1:22" ht="155" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="46" t="s">
+      <c r="A6" s="35" t="s">
         <v>74</v>
       </c>
-      <c r="B6" s="49" t="s">
+      <c r="B6" s="38" t="s">
         <v>79</v>
       </c>
       <c r="C6" s="8">
@@ -2958,7 +2958,7 @@
       <c r="E6" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="F6" s="48"/>
+      <c r="F6" s="37"/>
       <c r="G6" s="8" t="s">
         <v>14</v>
       </c>

--- a/app/public/static/aktemp-files-template.xlsx
+++ b/app/public/static/aktemp-files-template.xlsx
@@ -1,28 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10911"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
   <workbookPr showObjects="none" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jeff/git/ecosheds/aktemp/app/public/static/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jeff/git/aktemp/app/public/static/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{239893A6-466C-BF4C-B0FC-8DD394C606C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A8B49D2-48C8-9645-BD76-1C546A265081}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-51200" yWindow="500" windowWidth="48220" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="48220" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
-    <sheet name="FILES" sheetId="2" r:id="rId2"/>
-    <sheet name="EXAMPLES" sheetId="3" r:id="rId3"/>
+    <sheet name="SERIES" sheetId="2" r:id="rId2"/>
+    <sheet name="PROFILES" sheetId="6" r:id="rId3"/>
+    <sheet name="EXAMPLES-SERIES" sheetId="3" r:id="rId4"/>
+    <sheet name="EXAMPLES-PROFILES" sheetId="7" r:id="rId5"/>
   </sheets>
+  <definedNames>
+    <definedName name="accuracy">README!$C$54:$C$56</definedName>
+    <definedName name="depth_category">README!$C$50:$C$53</definedName>
+    <definedName name="interval">README!$C$39:$C$40</definedName>
+    <definedName name="Timezone">README!$C$43:$C$49</definedName>
+  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="181">
   <si>
     <t>Updated:</t>
   </si>
@@ -48,9 +56,6 @@
     <t>datetime</t>
   </si>
   <si>
-    <t>UTCOFFSET</t>
-  </si>
-  <si>
     <t>temp_c</t>
   </si>
   <si>
@@ -63,18 +68,12 @@
     <t>DISCRETE</t>
   </si>
   <si>
-    <t>PROFILES</t>
-  </si>
-  <si>
     <t>date</t>
   </si>
   <si>
     <t>time</t>
   </si>
   <si>
-    <t>TIMESTAMP</t>
-  </si>
-  <si>
     <t>COLUMN</t>
   </si>
   <si>
@@ -102,18 +101,9 @@
     <t>Filename</t>
   </si>
   <si>
-    <t>File Type</t>
-  </si>
-  <si>
-    <t>Datetime/Date Column</t>
-  </si>
-  <si>
     <t>Time Column</t>
   </si>
   <si>
-    <t>Timezone Mode</t>
-  </si>
-  <si>
     <t>Depth Units</t>
   </si>
   <si>
@@ -144,41 +134,9 @@
     <t>Continuous timeseries collected at regular intervals (e.g., hourly) by data logger</t>
   </si>
   <si>
-    <t>Discrete measurements (i.e., grab samples) collected at irregular intervals by temperature probe</t>
-  </si>
-  <si>
-    <t>Vertical profiles collected at a single location over varying depths by temperature probe</t>
-  </si>
-  <si>
-    <t>type of data stored in file, see definitions below</t>
-  </si>
-  <si>
     <t>Definitions:</t>
   </si>
   <si>
-    <t>File Type:</t>
-  </si>
-  <si>
-    <t>column name containing datetimes (i.e., timestamps), or
-column name containing dates if dates and times are provided in separate columns</t>
-  </si>
-  <si>
-    <t>Timezone Mode:</t>
-  </si>
-  <si>
-    <t>All datetimes (timestamps) have the same UTC (aka GMT) offset. If selected, then enter the UTC offset in hours (e.g., '-9' for AKST, '-8' for AKDT or PST, '-7' for PDT, '0' for UTC) in the 'Timezone Value' field.</t>
-  </si>
-  <si>
-    <t>File contains a column specifying the UTC offset in hours (e.g., '-9' for AKST, '-8' for AKDT) for each row. If selected, enter the column name in the 'Timezone Value' field.</t>
-  </si>
-  <si>
-    <t>The timezone information is included in the Datetime Column or (Time Column if dates and times are separate). If selected, the timezone info should be indicated at the end of each timestamp in standard ISO format (e.g., '2022-09-01 12:00:00-0800' to indicate AKDT), see https://en.wikipedia.org/wiki/ISO_8601#Time_offsets_from_UTC</t>
-  </si>
-  <si>
-    <t>column name containing times if dates and times are provided in separate columns
-leave blank if dates and times provided in a single column (Datetime/Date Column)</t>
-  </si>
-  <si>
     <t>column name containing temperature values</t>
   </si>
   <si>
@@ -189,9 +147,6 @@
   </si>
   <si>
     <t>Always</t>
-  </si>
-  <si>
-    <t>CONTINUOUS, DISCRETE, PROFILES</t>
   </si>
   <si>
     <t>1, 2, 3</t>
@@ -224,10 +179,6 @@
 leave blank if unknown</t>
   </si>
   <si>
-    <t>indicate whether data have already undergone a QAQC review, in which case the file should contain a Flag Column or should only contain valid data (i.e., all outliers or erroneous data has already been removed)
-leave blank if unknown</t>
-  </si>
-  <si>
     <t>6. Fix any validation or other errors that are reported (if any), and click Submit to try again.</t>
   </si>
   <si>
@@ -243,18 +194,9 @@
     <t>temperature</t>
   </si>
   <si>
-    <t>File containing continuous measurements (data logger) collected at approximately mid-depth at a single station (Coho Creek). Timestamps in a column named 'datetime', all of which are in AKST (UTC -9). Temperatures in a column named 'temp_c' with units of degC. Missing values indicated by '-9999'. Data logger has high accuracy (&lt; 0.25 C) and pre/post bath check was performed. File has not been reviewed.</t>
-  </si>
-  <si>
-    <t>File containing continuous measurements (data logger) collected at 1 m depth over multiple stations, which are indicated by the 'station_code' column. Timestamps in column named 'datetime', all of which are in AKDT (UTC -8). Temperatures in a column named 'temp_c' units of degC. Missing values indicated by '-9999'. Data loggers had high accuracy (&lt; 0.25 C) and pre/post bath check was performed on each data logger. File has been reviewed, and flags indicated in column named 'flag'.</t>
-  </si>
-  <si>
     <t>-9999,NA</t>
   </si>
   <si>
-    <t>File contains vertical profiles (measurements at multiple depths) at a single station (Great Pond). Dates and times provided in separate columns ('date' and 'time') with timestamps all in AKDT (UTC-8). Temperature measurements in column named 'temperature' with units of degC. File has been reviewed, but no flags provided indicating all data are valid (no outliers or erroneous values)</t>
-  </si>
-  <si>
     <t>Coho Creek Logger.csv</t>
   </si>
   <si>
@@ -285,9 +227,6 @@
     <t>File contains discrete measurements (grab samples via probe) at a single station (Fish Hook Creek). Timestamps in column 'datetime' and UTC offset provided in column named 'utc_offset' (should contain offset in hours, e.g. -8 or -9). Depth of each measurement provided in column named 'depth_ft' in units of 'ft'. Temperatures in column 'temp_f' in units of degF. No accuracy or qaqc information available.</t>
   </si>
   <si>
-    <t>1. Read column descriptions and definitions below (note that definitions of various options are defined below the Columns table) and review example file configurations on EXAMPLES sheet</t>
-  </si>
-  <si>
     <t>Requirements:</t>
   </si>
   <si>
@@ -297,9 +236,6 @@
     <t>Template and instructions for creating a configurations table for batch importing data files into AKTEMP</t>
   </si>
   <si>
-    <t>3. Fill in the file configuration columns on the FILES sheet</t>
-  </si>
-  <si>
     <t>AKTEMP Batch Import Files Template</t>
   </si>
   <si>
@@ -309,9 +245,6 @@
     <t>Station Column</t>
   </si>
   <si>
-    <t>UTC Offset</t>
-  </si>
-  <si>
     <t>Timezone Column</t>
   </si>
   <si>
@@ -324,15 +257,9 @@
     <t>Skip Lines</t>
   </si>
   <si>
-    <t>File containing continuous measurements (data logger) collected at a single station (Coho Creek). First two lines in file contains metadata that should be skipped (column names are on third line). Timestamps in a column named 'datetime' with timezone information included in timestamp. Depths also recorded and provided in column named 'depth_m' in units of meters. Temperatures in a column named 'temp_c' with units of degC. Missing values indicated by '-9999' or 'NA'. Data logger has unkown accuracy (&lt; 0.25 C) and pre/post bath check was not performed. File has not been reviewed.</t>
-  </si>
-  <si>
     <t>Numeric Depth</t>
   </si>
   <si>
-    <t>copy and paste filename column from website to FILES sheet</t>
-  </si>
-  <si>
     <t>Integers (0, 1, 2, …)</t>
   </si>
   <si>
@@ -351,60 +278,19 @@
     <t>column name containing station code associated with each measurement</t>
   </si>
   <si>
-    <t>if Timezone Mode = COLUMN</t>
-  </si>
-  <si>
-    <t>if Timezone Mode = UTCOFFSET</t>
-  </si>
-  <si>
     <t>if file contains data for single station</t>
   </si>
   <si>
     <t>if file contains data for multiple stations</t>
   </si>
   <si>
-    <t>GUESS, UTCOFFSET, COLUMN, TIMESTAMP</t>
-  </si>
-  <si>
-    <t>indicates whether the timezone information is unknown and should be guessed from file (GUESS), is a constant UTC offset (UTCOFFSET), is provided as a separate column in the file (COLUMN), or is included within the Datetime/Time column (TIMESTAMP). see definitions below</t>
-  </si>
-  <si>
-    <t>integer (-9, -8, -7, 0)</t>
-  </si>
-  <si>
-    <t>column name containing the UTC offset in hours
-leave blank if Timezone Mode is not COLUMN</t>
-  </si>
-  <si>
-    <t>enter the UTC offset in hours ('-9' for AKST, '-8' for AKDT or PST, '-7' for PDT, '0' for UTC)
-leave blank if Timezone Mode is not UTCOFFSET</t>
-  </si>
-  <si>
-    <t>BOTTOM, MID-DEPTH, SURFACE</t>
-  </si>
-  <si>
-    <t>numeric value</t>
-  </si>
-  <si>
-    <t>If Numeric Depth or Depth Category is not blank</t>
-  </si>
-  <si>
     <t>approximate numeric depth at which all measurements were collected. If depths varied over deployment, enter depth at start of deployment.</t>
-  </si>
-  <si>
-    <t>column name containing the numeric depth of each measurement</t>
   </si>
   <si>
     <t>depth units for the corresponding numeric depth values ('m', 'cm', 'ft', 'in')
 leave blank if Numeric Depth and Depth Column are both blank</t>
   </si>
   <si>
-    <t>GUESS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">If the UTC Offset of the recorded timestamps are not known (ie do not know if timestamps were in standard or daylight savings time), then the server will guess based on the local timezone of the associated station (eg US/Alaska), and the UTC Offset at the time of the first timestamp. For example, if the first timestamp is in winter and the station is in US/Alaska timezone, then the UTC offset for all timestamps is assumed to be -9 (AK Standard Time). If the first timestamp is in summer, then the UTC offset is assumed to be -8 (AK Daylight Time). </t>
-  </si>
-  <si>
     <t>Depth Category:</t>
   </si>
   <si>
@@ -426,13 +312,320 @@
     <t>depth category at which all measurements were collected, see definitions below</t>
   </si>
   <si>
-    <t>2. Copy and paste list of filenames from Batch File Import Table on AKTEMP to the FILES sheet in this workbook</t>
-  </si>
-  <si>
-    <t>4. Copy and paste all rows from the FILES sheet (excluding the filename column and the header row) to the Batch File Import table in AKTEMP</t>
-  </si>
-  <si>
     <t>5. Click Submit to validate and upload each file to AKTEMP</t>
+  </si>
+  <si>
+    <t>Interval</t>
+  </si>
+  <si>
+    <t>Date/time Column</t>
+  </si>
+  <si>
+    <t>Timezone</t>
+  </si>
+  <si>
+    <t>Date/time Format</t>
+  </si>
+  <si>
+    <t>Interval:</t>
+  </si>
+  <si>
+    <t>Timezone:</t>
+  </si>
+  <si>
+    <t>LOCAL</t>
+  </si>
+  <si>
+    <t>UTC</t>
+  </si>
+  <si>
+    <t>UTC-7</t>
+  </si>
+  <si>
+    <t>UTC-8</t>
+  </si>
+  <si>
+    <t>UTC-9</t>
+  </si>
+  <si>
+    <t>UTC-10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Use local timezone of first timestamp in each timeseries or profile. For example, if first timestamp is in winter and the station is in US/Alaska, then the UTC offset for all timestamps in that timeseries is assumed to be UTC-9 (AK Standard Time). If the first timestamp is in summer, then the UTC offset is assumed to be UTC-8 (AK Daylight Time). </t>
+  </si>
+  <si>
+    <t>File contains a column specifying the UTC offset in hours (e.g., '-9' or 'UTC-8' for AKST, '-8' or 'UTC-8' for AKDT) for each row. If selected, enter the column name in the 'Timezone Column' field.</t>
+  </si>
+  <si>
+    <t>All timestamps are in UTC-07 (PDT)</t>
+  </si>
+  <si>
+    <t>All timestamps are in UTC-08 (AKDT or PST)</t>
+  </si>
+  <si>
+    <t>All timestamps are in UTC-09 (AKST, HDT)</t>
+  </si>
+  <si>
+    <t>All timestamps are in UTC-10 (HST)</t>
+  </si>
+  <si>
+    <t>copy and paste filename column from website to FILES sheet to ensure rows are in the correct order</t>
+  </si>
+  <si>
+    <t>column name containing datetimes (i.e., timestamps), or
+column name containing only dates if dates and times are provided in separate columns</t>
+  </si>
+  <si>
+    <t>column name containing times if dates and times are provided in separate columns
+leave blank if dates and times provided in a single column (Date/time Column)</t>
+  </si>
+  <si>
+    <t>LOCAL, COLUMN, UTC, UTC-7, UTC-8, UTC-9, UTC-10</t>
+  </si>
+  <si>
+    <t>specifies the format of the dates and times for parsing timestamps. valid options include 'ISO' if all timestamps are in ISO 8601 (e.g., '2022-10-27T14:05:00.000Z'), or any combination of tokens supported by luxon library. see examples below.</t>
+  </si>
+  <si>
+    <t>ISO or valid format tokens</t>
+  </si>
+  <si>
+    <t>if Timezone=COLUMN</t>
+  </si>
+  <si>
+    <t>column name containing the UTC offset in hours (e.g. '-8' or 'UTC-8')
+leave blank if Timezone is not set to COLUMN</t>
+  </si>
+  <si>
+    <t>C, F</t>
+  </si>
+  <si>
+    <t>2. Copy and paste list of filenames from Batch File Import Table on AKTEMP to the SERIES or PROFILES sheet in this workbook (depending on the type of data)</t>
+  </si>
+  <si>
+    <t>4. Copy and paste all rows from the SERIES or PROFILES sheet (excluding the filename column and the header row) to the Batch File Import table in AKTEMP</t>
+  </si>
+  <si>
+    <t>Timeseries Only</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>CONTINUOUS, DISCRETE</t>
+  </si>
+  <si>
+    <t>1. Read column descriptions and definitions below (ote that definitions of various options are defined below the Columns table) and review example file configurations on SERIES-EXAMPLES or PROFILES-EXAMPLES sheet</t>
+  </si>
+  <si>
+    <t>3. Fill in the file configuration columns on the SERIES or PROFILES sheet (note columns marked as "Timeseries Only" below are excluded from the PROFILES table)</t>
+  </si>
+  <si>
+    <t>indicate whether data have already undergone a QAQC review, in which case the file should contain a Flag Column (Timeseries only) or should only contain valid data (i.e., all outliers or erroneous data has already been removed)
+leave blank if unknown</t>
+  </si>
+  <si>
+    <t>If either Numeric Depth or Depth Category is not blank</t>
+  </si>
+  <si>
+    <t xml:space="preserve">column name containing the numeric depth of each measurement. For timeseries data, depths cannot varying over time and must be a constant value over all measurements within a single timeseries. </t>
+  </si>
+  <si>
+    <t>decimal number</t>
+  </si>
+  <si>
+    <t>SURFACE, MID-DEPTH, BOTTOM, HYPORHEIC</t>
+  </si>
+  <si>
+    <t>HYPORHEIC</t>
+  </si>
+  <si>
+    <t>Within the hyporheic zone</t>
+  </si>
+  <si>
+    <t>Timestamps are in UTC or include the UTC offset at the end of the timestamp string (i.e. ends in '-0800', only for ISO format)</t>
+  </si>
+  <si>
+    <t>Discrete measurements (i.e., grab samples) collected at irregular or semi-regular (e.g., weekly) intervals by handheld probe</t>
+  </si>
+  <si>
+    <t>timeseries interval type, see definitions below</t>
+  </si>
+  <si>
+    <t>Date/time Formats:</t>
+  </si>
+  <si>
+    <t>Date/time Format:</t>
+  </si>
+  <si>
+    <t>ISO</t>
+  </si>
+  <si>
+    <t>Datetime conforms to ISO 8601 standard (e.g.  '2022-10-27T14:05:00.000Z' or '2022-10-27T22:05:00.000-08')</t>
+  </si>
+  <si>
+    <t>Format String (see below)</t>
+  </si>
+  <si>
+    <t>A string containing valid format tokens supported by the luxon library (see below)</t>
+  </si>
+  <si>
+    <t>https://moment.github.io/luxon/#/parsing?id=table-of-tokens</t>
+  </si>
+  <si>
+    <t>https://moment.github.io/luxon/#/parsing</t>
+  </si>
+  <si>
+    <t>The following links provide more information on how luxon parses date/times, as well as a table of supported tokens.</t>
+  </si>
+  <si>
+    <t>M/d/yyyy</t>
+  </si>
+  <si>
+    <t>M/d/yy</t>
+  </si>
+  <si>
+    <t>MMMM d, yyyy</t>
+  </si>
+  <si>
+    <t>MMM d, yyyy</t>
+  </si>
+  <si>
+    <t>d-MMM-yy</t>
+  </si>
+  <si>
+    <t>H:mm</t>
+  </si>
+  <si>
+    <t>H:mm:ss</t>
+  </si>
+  <si>
+    <t>HH:mm:ss.u</t>
+  </si>
+  <si>
+    <t>h:mm a</t>
+  </si>
+  <si>
+    <t>h:mm:ss a</t>
+  </si>
+  <si>
+    <t>10/2/2022</t>
+  </si>
+  <si>
+    <t>10/2/22</t>
+  </si>
+  <si>
+    <t>October 2, 2022</t>
+  </si>
+  <si>
+    <t>Oct 2, 2022</t>
+  </si>
+  <si>
+    <t>2-Oct-22</t>
+  </si>
+  <si>
+    <t>03:52:00.000</t>
+  </si>
+  <si>
+    <t>Common Date Formats:</t>
+  </si>
+  <si>
+    <t>Common Time Formats:</t>
+  </si>
+  <si>
+    <t>Parsing Documentation</t>
+  </si>
+  <si>
+    <t>Supported Tokens:</t>
+  </si>
+  <si>
+    <t>Below are some common examples for dates and times. If none of these work for your file(s), then review the table of supported tokens (link above) and try to determine the appropriate format string. Or, reformat your timestamps in Excel by going to Format &gt; Cells.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AKTEMP uses the luxon JavaScript library for parsing dates and times. To correctly parse the timestamps, the library must know the date/time format, which is specified using a sequence of letters known as 'tokens' that represent different date/time components such as the MM=month, dd=day, yyyy=year, HH=hour, etc. </t>
+  </si>
+  <si>
+    <t>Note that capitalization is important, and these tokens are not the same as those used by Excel.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">In the batch import table, the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Date/time Format column</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">must include both the date and time format </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>as a single string. If only dates are provided (no times) for profiles, then only the date format is required.
+For example, if the timestamp is provided as "10/2/2022 3:52 PM" then the Date/time Format setting should be set to "M/d/yyyy h:mm a"</t>
+    </r>
+  </si>
+  <si>
+    <t>indicates what timezone the timestamps are in for converting raw timestamps to UTC for storage in the database. see definitions below.</t>
+  </si>
+  <si>
+    <t>M/d/yy H:mm</t>
+  </si>
+  <si>
+    <t>d-MMM-yy H:mm</t>
+  </si>
+  <si>
+    <t>File containing continuous measurements (data logger) collected at a single station (Coho Creek). First two lines in file contains metadata that should be skipped (column names are on third line). Timestamps in a column named 'datetime' in local timezone. Multiple loggers at different depths indicated by value in column named 'depth_m' with units of meters. Temperatures in a column named 'temp_c' with units of degC. Missing values indicated by '-9999' or 'NA'. Data logger has unkown accuracy (&lt; 0.25 C) and pre/post bath check was not performed. File has not been reviewed.</t>
+  </si>
+  <si>
+    <t>File containing continuous measurements (data logger) collected at approximately mid-depth at a single station (Coho Creek). Timestamps in a column named 'datetime' in ISO 8601 format and in UTC. Temperatures in a column named 'temp_c' with units of degC. Missing values indicated by '-9999'. Data logger has high accuracy (&lt; 0.25 C) and pre/post bath check was performed. File has not been reviewed.</t>
+  </si>
+  <si>
+    <t>File containing continuous measurements (data logger) collected at 1 m depth over multiple stations, which are indicated by the 'station_code' column. Dates in column 'date' and times in column 'time' with format 'M/d/yy H:mm', all of which are in AKDT (UTC-8). Temperatures in a column named 'temp_c' units of degC. Missing values indicated by '-9999'. Data loggers had high accuracy (&lt; 0.25 C) and pre/post bath check was performed on each data logger. File has been reviewed, and flags indicated in column named 'flag'.</t>
+  </si>
+  <si>
+    <t>station</t>
+  </si>
+  <si>
+    <t>depth</t>
+  </si>
+  <si>
+    <t>File contains vertical profiles at multiple stations in column 'station'. Only dates provided in column 'date' with format 'M/d/yy' and in local timezone. Temperature measurements in column named 'temp_f' with units of degF. Depths in column 'depth_ft' in units of 'ft'. File has not been reviewed.</t>
+  </si>
+  <si>
+    <t>yyyy-MM-dd HH:mm</t>
+  </si>
+  <si>
+    <t>File contains vertical profiles at a single station (Great Pond). Dates and times provided in separate columns ('date' and 'time') with format 'yyyy-MM-dd HH:mm' in local timezone of station. Temperature measurements in column named 'temperature' with units of degC. Depths in column 'depth' with units 'm'. File has been reviewed, but no flags provided indicating all data are valid (no outliers or erroneous values)</t>
   </si>
 </sst>
 </file>
@@ -442,7 +635,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-409]mmmm\ d\,\ yyyy;@"/>
   </numFmts>
-  <fonts count="26" x14ac:knownFonts="1">
+  <fonts count="28" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -638,6 +831,18 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Courier"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Courier"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -832,7 +1037,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="20">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -1055,6 +1260,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1101,7 +1315,7 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1134,9 +1348,6 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="42"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -1152,18 +1363,12 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
@@ -1197,9 +1402,6 @@
     <xf numFmtId="0" fontId="22" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1221,44 +1423,134 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="19" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="15" fontId="19" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="20" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="21" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="47" fontId="19" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="18" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="19" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="14" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="43">
@@ -1306,7 +1598,7 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="7">
+  <dxfs count="8">
     <dxf>
       <font>
         <strike val="0"/>
@@ -1336,6 +1628,25 @@
         <scheme val="minor"/>
       </font>
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1426,11 +1737,12 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="B16:E37" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5" tableBorderDxfId="4">
-  <autoFilter ref="B16:E37" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
-  <tableColumns count="4">
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Column" dataDxfId="3"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Required" dataDxfId="2"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="B16:F37" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6" tableBorderDxfId="5">
+  <autoFilter ref="B16:F37" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <tableColumns count="5">
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Column" dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Required" dataDxfId="3"/>
+    <tableColumn id="1" xr3:uid="{CA63FA17-3951-9D4C-8DC5-B839BBF752D1}" name="Timeseries Only" dataDxfId="2"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Allowed Values" dataDxfId="1"/>
     <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Notes" dataDxfId="0"/>
   </tableColumns>
@@ -1735,560 +2047,838 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K51"/>
+  <dimension ref="A1:L80"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.33203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="21" style="1" customWidth="1"/>
     <col min="2" max="2" width="27.83203125" style="1" customWidth="1"/>
     <col min="3" max="3" width="31.5" style="1" customWidth="1"/>
-    <col min="4" max="4" width="35" style="1" customWidth="1"/>
-    <col min="5" max="5" width="96.83203125" style="1" customWidth="1"/>
-    <col min="6" max="10" width="10.33203125" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="10.83203125" style="1"/>
+    <col min="4" max="4" width="13.33203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="36.83203125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="97.83203125" style="1" customWidth="1"/>
+    <col min="7" max="11" width="10.33203125" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="24" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="24" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="32">
-        <v>44831</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B3" s="29">
+        <v>44861</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
       <c r="B4" s="3"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6" s="4"/>
     </row>
-    <row r="7" spans="1:5" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="33" t="s">
-        <v>86</v>
-      </c>
-      <c r="B7" s="51" t="s">
-        <v>87</v>
-      </c>
-      <c r="C7" s="51"/>
-      <c r="D7" s="51"/>
-      <c r="E7" s="51"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="B7" s="83" t="s">
+        <v>65</v>
+      </c>
+      <c r="C7" s="83"/>
+      <c r="D7" s="83"/>
+      <c r="E7" s="83"/>
+      <c r="F7" s="83"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
       <c r="B8" s="4"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="B10" s="4" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="5"/>
       <c r="B11" s="4" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="5"/>
       <c r="B12" s="4" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="5"/>
       <c r="B13" s="4" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="5"/>
       <c r="B14" s="4" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="5"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" ht="40" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B16" s="25" t="s">
+      <c r="B16" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="C16" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="D16" s="43" t="s">
+        <v>122</v>
+      </c>
+      <c r="E16" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="20" x14ac:dyDescent="0.25">
+      <c r="A17" s="5"/>
+      <c r="B17" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="C16" s="26" t="s">
-        <v>4</v>
-      </c>
-      <c r="D16" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" ht="20" x14ac:dyDescent="0.25">
-      <c r="A17" s="5"/>
-      <c r="B17" s="27" t="s">
+      <c r="D17" s="25"/>
+      <c r="E17" s="24"/>
+      <c r="F17" s="26" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="A18" s="5"/>
+      <c r="B18" s="24" t="s">
+        <v>73</v>
+      </c>
+      <c r="C18" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="D18" s="25"/>
+      <c r="E18" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="F18" s="26" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="20" x14ac:dyDescent="0.25">
+      <c r="A19" s="5"/>
+      <c r="B19" s="24" t="s">
+        <v>93</v>
+      </c>
+      <c r="C19" s="25"/>
+      <c r="D19" s="25" t="s">
+        <v>123</v>
+      </c>
+      <c r="E19" s="24" t="s">
+        <v>124</v>
+      </c>
+      <c r="F19" s="26" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="40" x14ac:dyDescent="0.25">
+      <c r="A20" s="5"/>
+      <c r="B20" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="C20" s="25" t="s">
+        <v>81</v>
+      </c>
+      <c r="D20" s="25"/>
+      <c r="E20" s="27" t="s">
+        <v>77</v>
+      </c>
+      <c r="F20" s="28" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="40" x14ac:dyDescent="0.25">
+      <c r="A21" s="5"/>
+      <c r="B21" s="24" t="s">
+        <v>69</v>
+      </c>
+      <c r="C21" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="D21" s="25"/>
+      <c r="E21" s="24" t="s">
+        <v>78</v>
+      </c>
+      <c r="F21" s="28" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" ht="40" x14ac:dyDescent="0.25">
+      <c r="A22" s="5"/>
+      <c r="B22" s="24" t="s">
+        <v>94</v>
+      </c>
+      <c r="C22" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="D22" s="25"/>
+      <c r="E22" s="24" t="s">
+        <v>78</v>
+      </c>
+      <c r="F22" s="26" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" ht="40" x14ac:dyDescent="0.25">
+      <c r="A23" s="5"/>
+      <c r="B23" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23" s="25"/>
+      <c r="D23" s="25"/>
+      <c r="E23" s="27"/>
+      <c r="F23" s="26" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="A24" s="5"/>
+      <c r="B24" s="24" t="s">
+        <v>96</v>
+      </c>
+      <c r="C24" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="D24" s="25"/>
+      <c r="E24" s="27" t="s">
+        <v>116</v>
+      </c>
+      <c r="F24" s="26" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" ht="40" x14ac:dyDescent="0.25">
+      <c r="B25" s="24" t="s">
+        <v>95</v>
+      </c>
+      <c r="C25" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="D25" s="25"/>
+      <c r="E25" s="35" t="s">
+        <v>114</v>
+      </c>
+      <c r="F25" s="26" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" ht="40" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="C26" s="25" t="s">
+        <v>117</v>
+      </c>
+      <c r="D26" s="25"/>
+      <c r="E26" s="27"/>
+      <c r="F26" s="26" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="C17" s="28" t="s">
-        <v>54</v>
-      </c>
-      <c r="D17" s="27"/>
-      <c r="E17" s="29" t="s">
+      <c r="C27" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="D27" s="25"/>
+      <c r="E27" s="27" t="s">
+        <v>78</v>
+      </c>
+      <c r="F27" s="26" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="D28" s="25"/>
+      <c r="E28" s="24" t="s">
+        <v>119</v>
+      </c>
+      <c r="F28" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="L28" s="13"/>
+    </row>
+    <row r="29" spans="1:12" ht="40" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29" s="25"/>
+      <c r="D29" s="25"/>
+      <c r="E29" s="24"/>
+      <c r="F29" s="26" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" ht="40" x14ac:dyDescent="0.25">
+      <c r="B30" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30" s="25"/>
+      <c r="D30" s="25" t="s">
+        <v>123</v>
+      </c>
+      <c r="E30" s="27" t="s">
+        <v>78</v>
+      </c>
+      <c r="F30" s="26" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" ht="40" x14ac:dyDescent="0.25">
+      <c r="B31" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="C31" s="25"/>
+      <c r="D31" s="25" t="s">
+        <v>123</v>
+      </c>
+      <c r="E31" s="35" t="s">
+        <v>131</v>
+      </c>
+      <c r="F31" s="26" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" ht="40" x14ac:dyDescent="0.25">
+      <c r="B32" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="C32" s="25"/>
+      <c r="D32" s="25" t="s">
+        <v>123</v>
+      </c>
+      <c r="E32" s="27" t="s">
+        <v>130</v>
+      </c>
+      <c r="F32" s="26" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" ht="41" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="24" t="s">
+        <v>72</v>
+      </c>
+      <c r="C33" s="25"/>
+      <c r="D33" s="25"/>
+      <c r="E33" s="27" t="s">
+        <v>78</v>
+      </c>
+      <c r="F33" s="26" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" ht="40" x14ac:dyDescent="0.25">
+      <c r="B34" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C34" s="25" t="s">
+        <v>128</v>
+      </c>
+      <c r="D34" s="25"/>
+      <c r="E34" s="24"/>
+      <c r="F34" s="26" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" ht="40" x14ac:dyDescent="0.25">
+      <c r="B35" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="C35" s="25"/>
+      <c r="D35" s="25"/>
+      <c r="E35" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="F35" s="26" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" ht="40" x14ac:dyDescent="0.25">
+      <c r="B36" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="C36" s="25"/>
+      <c r="D36" s="25" t="s">
+        <v>123</v>
+      </c>
+      <c r="E36" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="F36" s="26" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" ht="80" x14ac:dyDescent="0.25">
+      <c r="B37" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="C37" s="25"/>
+      <c r="D37" s="25"/>
+      <c r="E37" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="F37" s="26" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" ht="19" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B39" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="C39" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D39" s="76" t="s">
+        <v>33</v>
+      </c>
+      <c r="E39" s="71"/>
+      <c r="F39" s="72"/>
+    </row>
+    <row r="40" spans="1:11" ht="19" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B40" s="20"/>
+      <c r="C40" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="D40" s="73" t="s">
+        <v>135</v>
+      </c>
+      <c r="E40" s="74"/>
+      <c r="F40" s="75"/>
+    </row>
+    <row r="41" spans="1:11" ht="19" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B41" s="36" t="s">
+        <v>138</v>
+      </c>
+      <c r="C41" s="14" t="s">
+        <v>139</v>
+      </c>
+      <c r="D41" s="80" t="s">
+        <v>140</v>
+      </c>
+      <c r="E41" s="81"/>
+      <c r="F41" s="82"/>
+    </row>
+    <row r="42" spans="1:11" ht="19" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B42" s="44"/>
+      <c r="C42" s="16" t="s">
+        <v>141</v>
+      </c>
+      <c r="D42" s="67" t="s">
+        <v>142</v>
+      </c>
+      <c r="E42" s="59"/>
+      <c r="F42" s="60"/>
+    </row>
+    <row r="43" spans="1:11" ht="57" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B43" s="36" t="s">
+        <v>98</v>
+      </c>
+      <c r="C43" s="41" t="s">
+        <v>99</v>
+      </c>
+      <c r="D43" s="76" t="s">
+        <v>105</v>
+      </c>
+      <c r="E43" s="71"/>
+      <c r="F43" s="72"/>
+    </row>
+    <row r="44" spans="1:11" ht="38" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B44" s="37"/>
+      <c r="C44" s="42" t="s">
+        <v>14</v>
+      </c>
+      <c r="D44" s="77" t="s">
+        <v>106</v>
+      </c>
+      <c r="E44" s="56"/>
+      <c r="F44" s="78"/>
+    </row>
+    <row r="45" spans="1:11" ht="19" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B45" s="37"/>
+      <c r="C45" s="42" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="18" spans="1:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="A18" s="5"/>
-      <c r="B18" s="27" t="s">
-        <v>97</v>
-      </c>
-      <c r="C18" s="28" t="s">
-        <v>54</v>
-      </c>
-      <c r="D18" s="27" t="s">
+      <c r="D45" s="79" t="s">
+        <v>134</v>
+      </c>
+      <c r="E45" s="55"/>
+      <c r="F45" s="58"/>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B46" s="37"/>
+      <c r="C46" s="42" t="s">
         <v>101</v>
       </c>
-      <c r="E18" s="29" t="s">
+      <c r="D46" s="68" t="s">
+        <v>107</v>
+      </c>
+      <c r="E46" s="69"/>
+      <c r="F46" s="70"/>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B47" s="37"/>
+      <c r="C47" s="42" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="19" spans="1:11" ht="20" x14ac:dyDescent="0.25">
-      <c r="A19" s="5"/>
-      <c r="B19" s="27" t="s">
-        <v>26</v>
-      </c>
-      <c r="C19" s="28" t="s">
-        <v>54</v>
-      </c>
-      <c r="D19" s="30" t="s">
-        <v>55</v>
-      </c>
-      <c r="E19" s="31" t="s">
+      <c r="D47" s="68" t="s">
+        <v>108</v>
+      </c>
+      <c r="E47" s="69"/>
+      <c r="F47" s="70"/>
+      <c r="J47" s="39"/>
+      <c r="K47" s="39"/>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B48" s="37"/>
+      <c r="C48" s="42" t="s">
+        <v>103</v>
+      </c>
+      <c r="D48" s="68" t="s">
+        <v>109</v>
+      </c>
+      <c r="E48" s="69"/>
+      <c r="F48" s="70"/>
+      <c r="J48" s="39"/>
+      <c r="K48" s="39"/>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B49" s="38"/>
+      <c r="C49" s="42" t="s">
+        <v>104</v>
+      </c>
+      <c r="D49" s="67" t="s">
+        <v>110</v>
+      </c>
+      <c r="E49" s="59"/>
+      <c r="F49" s="60"/>
+      <c r="G49" s="12"/>
+    </row>
+    <row r="50" spans="1:7" ht="19" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B50" s="37" t="s">
+        <v>85</v>
+      </c>
+      <c r="C50" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="D50" s="71" t="s">
+        <v>90</v>
+      </c>
+      <c r="E50" s="71"/>
+      <c r="F50" s="72"/>
+      <c r="G50" s="12"/>
+    </row>
+    <row r="51" spans="1:7" ht="19" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B51" s="37"/>
+      <c r="C51" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="D51" s="55" t="s">
+        <v>89</v>
+      </c>
+      <c r="E51" s="55"/>
+      <c r="F51" s="58"/>
+      <c r="G51" s="12"/>
+    </row>
+    <row r="52" spans="1:7" ht="19" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B52" s="37"/>
+      <c r="C52" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="D52" s="55" t="s">
+        <v>88</v>
+      </c>
+      <c r="E52" s="55"/>
+      <c r="F52" s="58"/>
+      <c r="G52" s="12"/>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B53" s="38"/>
+      <c r="C53" s="40" t="s">
+        <v>132</v>
+      </c>
+      <c r="D53" s="59" t="s">
+        <v>133</v>
+      </c>
+      <c r="E53" s="59"/>
+      <c r="F53" s="60"/>
+      <c r="G53" s="12"/>
+    </row>
+    <row r="54" spans="1:7" ht="19" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B54" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="C54" s="14">
+        <v>1</v>
+      </c>
+      <c r="D54" s="61" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="20" spans="1:11" ht="40" x14ac:dyDescent="0.25">
-      <c r="A20" s="5"/>
-      <c r="B20" s="27" t="s">
-        <v>91</v>
-      </c>
-      <c r="C20" s="28" t="s">
-        <v>109</v>
-      </c>
-      <c r="D20" s="30" t="s">
-        <v>103</v>
-      </c>
-      <c r="E20" s="31" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" ht="40" x14ac:dyDescent="0.25">
-      <c r="A21" s="5"/>
-      <c r="B21" s="27" t="s">
-        <v>92</v>
-      </c>
-      <c r="C21" s="28" t="s">
-        <v>110</v>
-      </c>
-      <c r="D21" s="27" t="s">
-        <v>104</v>
-      </c>
-      <c r="E21" s="31" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" ht="40" x14ac:dyDescent="0.25">
-      <c r="A22" s="5"/>
-      <c r="B22" s="27" t="s">
-        <v>27</v>
-      </c>
-      <c r="C22" s="28" t="s">
-        <v>54</v>
-      </c>
-      <c r="D22" s="27" t="s">
-        <v>104</v>
-      </c>
-      <c r="E22" s="29" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" ht="40" x14ac:dyDescent="0.25">
-      <c r="A23" s="5"/>
-      <c r="B23" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="C23" s="28"/>
-      <c r="D23" s="30"/>
-      <c r="E23" s="29" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="B24" s="27" t="s">
-        <v>29</v>
-      </c>
-      <c r="C24" s="28" t="s">
-        <v>54</v>
-      </c>
-      <c r="D24" s="39" t="s">
-        <v>111</v>
-      </c>
-      <c r="E24" s="29" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" ht="40" x14ac:dyDescent="0.25">
-      <c r="B25" s="27" t="s">
-        <v>93</v>
-      </c>
-      <c r="C25" s="28" t="s">
-        <v>108</v>
-      </c>
-      <c r="D25" s="30" t="s">
-        <v>113</v>
-      </c>
-      <c r="E25" s="29" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" ht="40" x14ac:dyDescent="0.25">
-      <c r="B26" s="27" t="s">
-        <v>94</v>
-      </c>
-      <c r="C26" s="28" t="s">
-        <v>107</v>
-      </c>
-      <c r="D26" s="30"/>
-      <c r="E26" s="29" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" ht="20" x14ac:dyDescent="0.25">
-      <c r="B27" s="27" t="s">
-        <v>31</v>
-      </c>
-      <c r="C27" s="28" t="s">
-        <v>54</v>
-      </c>
-      <c r="D27" s="30" t="s">
-        <v>104</v>
-      </c>
-      <c r="E27" s="29" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" ht="20" x14ac:dyDescent="0.25">
-      <c r="B28" s="27" t="s">
-        <v>32</v>
-      </c>
-      <c r="C28" s="28" t="s">
-        <v>54</v>
-      </c>
-      <c r="D28" s="27"/>
-      <c r="E28" s="29" t="s">
-        <v>52</v>
-      </c>
-      <c r="K28" s="13"/>
-    </row>
-    <row r="29" spans="1:11" ht="40" x14ac:dyDescent="0.25">
-      <c r="B29" s="27" t="s">
-        <v>33</v>
-      </c>
-      <c r="C29" s="28"/>
-      <c r="D29" s="27"/>
-      <c r="E29" s="29" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" ht="40" x14ac:dyDescent="0.25">
-      <c r="B30" s="27" t="s">
-        <v>34</v>
-      </c>
-      <c r="C30" s="28"/>
-      <c r="D30" s="30" t="s">
-        <v>104</v>
-      </c>
-      <c r="E30" s="29" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" ht="20" x14ac:dyDescent="0.25">
-      <c r="B31" s="27" t="s">
-        <v>95</v>
-      </c>
-      <c r="C31" s="28"/>
-      <c r="D31" s="30" t="s">
-        <v>116</v>
-      </c>
-      <c r="E31" s="29" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" ht="40" x14ac:dyDescent="0.25">
-      <c r="B32" s="27" t="s">
-        <v>99</v>
-      </c>
-      <c r="C32" s="28"/>
-      <c r="D32" s="30" t="s">
-        <v>117</v>
-      </c>
-      <c r="E32" s="29" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" ht="40" x14ac:dyDescent="0.25">
-      <c r="B33" s="27" t="s">
-        <v>30</v>
-      </c>
-      <c r="C33" s="28" t="s">
-        <v>118</v>
-      </c>
-      <c r="D33" s="27"/>
-      <c r="E33" s="29" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" ht="20" x14ac:dyDescent="0.25">
-      <c r="B34" s="27" t="s">
-        <v>96</v>
-      </c>
-      <c r="C34" s="28"/>
-      <c r="D34" s="30" t="s">
-        <v>104</v>
-      </c>
-      <c r="E34" s="29" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" ht="40" x14ac:dyDescent="0.25">
-      <c r="B35" s="27" t="s">
-        <v>35</v>
-      </c>
-      <c r="C35" s="28"/>
-      <c r="D35" s="30" t="s">
-        <v>56</v>
-      </c>
-      <c r="E35" s="29" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" ht="40" x14ac:dyDescent="0.25">
-      <c r="B36" s="27" t="s">
-        <v>36</v>
-      </c>
-      <c r="C36" s="28"/>
-      <c r="D36" s="30" t="s">
-        <v>57</v>
-      </c>
-      <c r="E36" s="29" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" ht="80" x14ac:dyDescent="0.25">
-      <c r="B37" s="27" t="s">
-        <v>37</v>
-      </c>
-      <c r="C37" s="28"/>
-      <c r="D37" s="30" t="s">
-        <v>57</v>
-      </c>
-      <c r="E37" s="29" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="2" t="s">
+      <c r="E54" s="62"/>
+      <c r="F54" s="63"/>
+    </row>
+    <row r="55" spans="1:7" ht="19" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B55" s="17"/>
+      <c r="C55" s="15">
+        <v>2</v>
+      </c>
+      <c r="D55" s="64" t="s">
         <v>43</v>
       </c>
-      <c r="B39" s="21" t="s">
+      <c r="E55" s="65"/>
+      <c r="F55" s="66"/>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B56" s="18"/>
+      <c r="C56" s="40">
+        <v>3</v>
+      </c>
+      <c r="D56" s="67" t="s">
         <v>44</v>
       </c>
-      <c r="C39" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="D39" s="43" t="s">
-        <v>39</v>
-      </c>
-      <c r="E39" s="44"/>
-    </row>
-    <row r="40" spans="1:6" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="22"/>
-      <c r="C40" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="D40" s="45" t="s">
-        <v>40</v>
-      </c>
-      <c r="E40" s="46"/>
-    </row>
-    <row r="41" spans="1:6" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="23"/>
-      <c r="C41" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="D41" s="52" t="s">
-        <v>41</v>
-      </c>
-      <c r="E41" s="53"/>
-    </row>
-    <row r="42" spans="1:6" ht="80" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="40" t="s">
-        <v>46</v>
-      </c>
-      <c r="C42" s="15" t="s">
-        <v>122</v>
-      </c>
-      <c r="D42" s="54" t="s">
-        <v>123</v>
-      </c>
-      <c r="E42" s="55"/>
-    </row>
-    <row r="43" spans="1:6" ht="40" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="41"/>
-      <c r="C43" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="D43" s="45" t="s">
-        <v>47</v>
-      </c>
-      <c r="E43" s="46"/>
-    </row>
-    <row r="44" spans="1:6" ht="40" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="41"/>
-      <c r="C44" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="D44" s="45" t="s">
-        <v>48</v>
-      </c>
-      <c r="E44" s="46"/>
-    </row>
-    <row r="45" spans="1:6" ht="58" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="42"/>
-      <c r="C45" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="D45" s="52" t="s">
-        <v>49</v>
-      </c>
-      <c r="E45" s="53"/>
-      <c r="F45" s="12"/>
-    </row>
-    <row r="46" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="24" t="s">
-        <v>124</v>
-      </c>
-      <c r="C46" s="15" t="s">
-        <v>125</v>
-      </c>
-      <c r="D46" s="43" t="s">
-        <v>127</v>
-      </c>
-      <c r="E46" s="44"/>
-      <c r="F46" s="12"/>
-    </row>
-    <row r="47" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="41"/>
-      <c r="C47" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="D47" s="45" t="s">
-        <v>128</v>
-      </c>
-      <c r="E47" s="46"/>
-      <c r="F47" s="12"/>
-    </row>
-    <row r="48" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="42"/>
-      <c r="C48" s="17" t="s">
-        <v>126</v>
-      </c>
-      <c r="D48" s="52" t="s">
-        <v>129</v>
-      </c>
-      <c r="E48" s="53"/>
-      <c r="F48" s="12"/>
-    </row>
-    <row r="49" spans="2:5" ht="20" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="24" t="s">
-        <v>58</v>
-      </c>
-      <c r="C49" s="14">
-        <v>1</v>
-      </c>
-      <c r="D49" s="47" t="s">
-        <v>59</v>
-      </c>
-      <c r="E49" s="48"/>
-    </row>
-    <row r="50" spans="2:5" ht="20" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="18"/>
-      <c r="C50" s="14">
-        <v>2</v>
-      </c>
-      <c r="D50" s="47" t="s">
-        <v>60</v>
-      </c>
-      <c r="E50" s="48"/>
-    </row>
-    <row r="51" spans="2:5" ht="20" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="19"/>
-      <c r="C51" s="20">
-        <v>3</v>
-      </c>
-      <c r="D51" s="49" t="s">
-        <v>61</v>
-      </c>
-      <c r="E51" s="50"/>
+      <c r="E56" s="59"/>
+      <c r="F56" s="60"/>
+    </row>
+    <row r="58" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="30" t="s">
+        <v>137</v>
+      </c>
+      <c r="B58" s="55" t="s">
+        <v>167</v>
+      </c>
+      <c r="C58" s="55"/>
+      <c r="D58" s="55"/>
+      <c r="E58" s="55"/>
+      <c r="F58" s="55"/>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B60" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B61" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="C61" s="13" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B62" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="C62" s="13" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B63" s="5"/>
+      <c r="C63" s="13"/>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B64" s="22" t="s">
+        <v>168</v>
+      </c>
+      <c r="C64" s="13"/>
+    </row>
+    <row r="66" spans="2:6" ht="40" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B66" s="55" t="s">
+        <v>166</v>
+      </c>
+      <c r="C66" s="55"/>
+      <c r="D66" s="55"/>
+      <c r="E66" s="55"/>
+      <c r="F66" s="55"/>
+    </row>
+    <row r="68" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B68" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="C68" s="52" t="s">
+        <v>146</v>
+      </c>
+      <c r="D68" s="45" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="69" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B69" s="5"/>
+      <c r="C69" s="52" t="s">
+        <v>147</v>
+      </c>
+      <c r="D69" s="45" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="70" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B70" s="5"/>
+      <c r="C70" s="52" t="s">
+        <v>148</v>
+      </c>
+      <c r="D70" s="46" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="71" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B71" s="5"/>
+      <c r="C71" s="52" t="s">
+        <v>149</v>
+      </c>
+      <c r="D71" s="46" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="72" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B72" s="5"/>
+      <c r="C72" s="52" t="s">
+        <v>150</v>
+      </c>
+      <c r="D72" s="46" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="73" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B73" s="5"/>
+      <c r="C73" s="53"/>
+    </row>
+    <row r="74" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B74" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="C74" s="52" t="s">
+        <v>151</v>
+      </c>
+      <c r="D74" s="47">
+        <v>0.16111111111111112</v>
+      </c>
+    </row>
+    <row r="75" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C75" s="52" t="s">
+        <v>152</v>
+      </c>
+      <c r="D75" s="48">
+        <v>0.16111111111111112</v>
+      </c>
+    </row>
+    <row r="76" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C76" s="52" t="s">
+        <v>153</v>
+      </c>
+      <c r="D76" s="49" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="77" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C77" s="52" t="s">
+        <v>154</v>
+      </c>
+      <c r="D77" s="50">
+        <v>0.66111111111111109</v>
+      </c>
+    </row>
+    <row r="78" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C78" s="52" t="s">
+        <v>155</v>
+      </c>
+      <c r="D78" s="51">
+        <v>0.66111111111111109</v>
+      </c>
+    </row>
+    <row r="80" spans="2:6" ht="61" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B80" s="56" t="s">
+        <v>169</v>
+      </c>
+      <c r="C80" s="57"/>
+      <c r="D80" s="57"/>
+      <c r="E80" s="57"/>
+      <c r="F80" s="57"/>
     </row>
   </sheetData>
-  <mergeCells count="14">
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="D47:E47"/>
-    <mergeCell ref="D50:E50"/>
-    <mergeCell ref="D51:E51"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="D44:E44"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="D48:E48"/>
-    <mergeCell ref="D49:E49"/>
-    <mergeCell ref="D43:E43"/>
+  <mergeCells count="22">
+    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="D39:F39"/>
+    <mergeCell ref="D40:F40"/>
+    <mergeCell ref="D43:F43"/>
+    <mergeCell ref="D44:F44"/>
+    <mergeCell ref="D45:F45"/>
+    <mergeCell ref="D46:F46"/>
+    <mergeCell ref="D41:F41"/>
+    <mergeCell ref="D42:F42"/>
+    <mergeCell ref="D47:F47"/>
+    <mergeCell ref="D48:F48"/>
+    <mergeCell ref="D49:F49"/>
+    <mergeCell ref="D50:F50"/>
+    <mergeCell ref="D51:F51"/>
+    <mergeCell ref="B58:F58"/>
+    <mergeCell ref="B66:F66"/>
+    <mergeCell ref="B80:F80"/>
+    <mergeCell ref="D52:F52"/>
+    <mergeCell ref="D53:F53"/>
+    <mergeCell ref="D54:F54"/>
+    <mergeCell ref="D55:F55"/>
+    <mergeCell ref="D56:F56"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="C62" r:id="rId1" location="/parsing?id=table-of-tokens" xr:uid="{EBE246B7-3C99-9446-A481-57B6DEAF92B7}"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
@@ -2298,23 +2888,23 @@
   <dimension ref="A1:U45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B4" sqref="B4"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="34.6640625" style="34" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="34.6640625" style="31" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.33203125" style="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.1640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10" style="8" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.83203125" style="8" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19" style="8" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="28" style="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.5" style="8" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="16" style="8" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.5" style="8" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13" style="8" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22" style="8" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12" style="8" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="21.6640625" style="8" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="25.6640625" style="8" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="22.83203125" style="8" bestFit="1" customWidth="1"/>
@@ -2322,8 +2912,8 @@
     <col min="14" max="14" width="15" style="8" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="19.1640625" style="8" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="18.6640625" style="8" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="17.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="17.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.6640625" style="7" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="20" style="7" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="11.83203125" style="7" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="12.1640625" style="7" bestFit="1" customWidth="1"/>
@@ -2332,67 +2922,67 @@
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="I1" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="J1" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="K1" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="C1" s="10" t="s">
+      <c r="L1" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="E1" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="F1" s="10" t="s">
+      <c r="M1" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="N1" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="O1" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="P1" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q1" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="R1" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="S1" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="I1" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="J1" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="K1" s="10" t="s">
+      <c r="T1" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="U1" s="10" t="s">
         <v>31</v>
-      </c>
-      <c r="L1" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="M1" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="N1" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="O1" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="P1" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="Q1" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="R1" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="S1" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="T1" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="U1" s="10" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.2">
@@ -2621,33 +3211,371 @@
       <c r="P45" s="7"/>
     </row>
   </sheetData>
+  <dataValidations count="20">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Skip Lines" prompt="Must be a positive integer" sqref="B2" xr:uid="{08A55B92-14DE-6049-BDC5-631A497517C5}">
+      <formula1>0</formula1>
+      <formula2>1000</formula2>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Timeseries Interval" prompt="Select value from dropdown" sqref="C2" xr:uid="{FAF40928-8BC5-424A-AFE3-9BFF66F3C3D9}">
+      <formula1>interval</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Temperature Column" prompt="Column containing temperature values" sqref="K2" xr:uid="{C6ACB7CE-7499-724E-87B9-6B229C9CEC48}"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Temperature Units" prompt="C or F" sqref="L2" xr:uid="{4BF75D0C-19F9-FB45-952D-4755F63A5DDE}">
+      <formula1>"C,F"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Missing Values" prompt="Comma-separated string of missing value indicators (-99,NA)" sqref="M2" xr:uid="{73361A93-0DD8-8A43-860C-6A39D3753D79}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Flag Column" prompt="Column containing QAQC flags" sqref="N2" xr:uid="{09986996-8C1B-5D4D-B85F-C4F8E2CB905F}"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Depth Category" prompt="Select from dropdown" sqref="O2" xr:uid="{0702D404-223A-E84F-BDDE-03FD2F31B457}">
+      <formula1>depth_category</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Numeric Depth" prompt="Approx. depth of logger" sqref="P2" xr:uid="{7E60E3EA-6F8D-D544-9C6F-92352D669C2E}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Depth Column" prompt="Column containing logger depth. Must be constant for each timeseries." sqref="Q2" xr:uid="{D47704FF-F78B-D34D-9354-39051BCD1647}"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Depth Units" prompt="Units of Numeric Depth or Depth Column values" sqref="R2" xr:uid="{5D85510D-F647-C247-83DA-44E018FF9B74}">
+      <formula1>"m,ft,in,cm"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Sensor Accuracy" prompt="Select from dropdown" sqref="S2" xr:uid="{E0AED53B-3A9F-984F-8A8B-873B0A8DF480}">
+      <formula1>accuracy</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="SOP Bath" prompt="Was logger checked pre/post deployment?" sqref="T2" xr:uid="{4FE15EB4-D516-5348-B888-E6D05B2154F7}">
+      <formula1>"TRUE,FALSE"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Reviewed" prompt="Has this dataset already undergone QAQC review?" sqref="U2" xr:uid="{BDF09C0F-383D-E54B-8B15-2F6813B7AA3E}">
+      <formula1>"TRUE,FALSE"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Timezone" prompt="Select from dropdown" sqref="I2" xr:uid="{772C880B-8515-1843-AD91-522FD1CA8E24}">
+      <formula1>Timezone</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Timezone Column" prompt="Column containing UTC offset in hours for each row" sqref="J2" xr:uid="{E6B7F1D6-F77C-AB41-86BF-BAF20A36BDAC}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Date/time Format" prompt="Format for parsing timestamp, enter ISO or token string" sqref="H2" xr:uid="{9D0695BB-120B-E14E-A794-E76E68F7C741}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Time Column" prompt="Column containing times if separate from dates" sqref="G2" xr:uid="{B9473BA4-42B6-C74E-8EA8-7BF473A01330}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Date/time Column" prompt="Column containg date/times or only dates if separate" sqref="F2" xr:uid="{B6A2C4A8-51E7-2849-86D8-AD32165D68C3}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Station Column" prompt="Column containing station codes" sqref="E2" xr:uid="{5ACA1B15-B3B6-F34E-8FA1-93668DA55C84}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Station Code" prompt="Must be existing station within organization" sqref="D2" xr:uid="{CF2D4214-1DAE-8642-937C-5AD6540F8FAD}"/>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1B94E1A-8A2B-B84A-B7D5-CA166D0DAB06}">
+  <dimension ref="A1:P45"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="21" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="34.6640625" style="31" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.33203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.83203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.5" style="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16" style="8" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22" style="8" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12" style="8" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.6640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="25.6640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="22.83203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.83203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="20" style="7" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.1640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="10.83203125" style="7"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A1" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="H1" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="I1" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="J1" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="K1" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="L1" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="M1" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="N1" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="O1" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="P1" s="10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="J3" s="11"/>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+    </row>
+    <row r="17" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+    </row>
+    <row r="18" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+    </row>
+    <row r="19" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+    </row>
+    <row r="20" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+    </row>
+    <row r="21" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+    </row>
+    <row r="22" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+    </row>
+    <row r="23" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+    </row>
+    <row r="24" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+    </row>
+    <row r="25" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
+    </row>
+    <row r="26" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C26" s="7"/>
+      <c r="D26" s="7"/>
+    </row>
+    <row r="27" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C27" s="7"/>
+      <c r="D27" s="7"/>
+    </row>
+    <row r="28" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C28" s="7"/>
+      <c r="D28" s="7"/>
+    </row>
+    <row r="29" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C29" s="7"/>
+      <c r="D29" s="7"/>
+    </row>
+    <row r="30" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C30" s="7"/>
+      <c r="D30" s="7"/>
+    </row>
+    <row r="31" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C31" s="7"/>
+      <c r="D31" s="7"/>
+    </row>
+    <row r="32" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C32" s="7"/>
+      <c r="D32" s="7"/>
+    </row>
+    <row r="33" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C33" s="7"/>
+      <c r="D33" s="7"/>
+    </row>
+    <row r="34" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C34" s="7"/>
+      <c r="D34" s="7"/>
+    </row>
+    <row r="35" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C35" s="7"/>
+      <c r="D35" s="7"/>
+    </row>
+    <row r="36" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C36" s="7"/>
+      <c r="D36" s="7"/>
+    </row>
+    <row r="37" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C37" s="7"/>
+      <c r="D37" s="7"/>
+    </row>
+    <row r="38" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C38" s="7"/>
+      <c r="D38" s="7"/>
+    </row>
+    <row r="39" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C39" s="7"/>
+      <c r="D39" s="7"/>
+    </row>
+    <row r="40" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C40" s="7"/>
+      <c r="D40" s="7"/>
+    </row>
+    <row r="41" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C41" s="7"/>
+      <c r="D41" s="7"/>
+    </row>
+    <row r="42" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C42" s="7"/>
+      <c r="D42" s="7"/>
+    </row>
+    <row r="43" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C43" s="7"/>
+      <c r="D43" s="7"/>
+    </row>
+    <row r="44" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C44" s="7"/>
+      <c r="D44" s="7"/>
+    </row>
+    <row r="45" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C45" s="7"/>
+      <c r="D45" s="7"/>
+    </row>
+  </sheetData>
+  <dataValidations count="15">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Station Code" prompt="Must be existing station within organization" sqref="C2" xr:uid="{2ED4007B-BE15-874C-9F50-2F51ACABC735}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Station Column" prompt="Column containing station codes" sqref="D2" xr:uid="{7D369B88-40FC-4A44-9DFC-B4C13B722FD8}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Date/time Column" prompt="Column containg date/times or only dates if separate" sqref="E2" xr:uid="{CF1256F1-7EC3-7844-BE65-73C2635B7E05}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Time Column" prompt="Column containing times if separate from dates" sqref="F2" xr:uid="{59F10F3E-7A53-4F48-B36C-AC09DE1F0F15}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Date/time Format" prompt="Format for parsing timestamp, enter ISO or token string" sqref="G2" xr:uid="{4FFEF8AA-BB6F-BD4E-ADF8-8EB80D5A1FD7}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Timezone Column" prompt="Column containing UTC offset in hours for each row" sqref="I2" xr:uid="{A914C17A-87EB-BF41-A512-14B3DFF6AA4A}"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Timezone" prompt="Select from dropdown" sqref="H2" xr:uid="{531D7EF9-BF88-1441-9F3A-8F3337C9C43C}">
+      <formula1>Timezone</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Reviewed" prompt="Has this dataset already undergone QAQC review?" sqref="P2" xr:uid="{D3AFA1E1-DDD2-DA41-8066-5ACEA4276E75}">
+      <formula1>"TRUE,FALSE"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Sensor Accuracy" prompt="Select from dropdown" sqref="O2" xr:uid="{17CF69D0-AAA8-0F4A-A806-E78C832DCBD9}">
+      <formula1>accuracy</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Depth Units" prompt="Units of Numeric Depth or Depth Column values" sqref="N2" xr:uid="{201040A1-116A-2949-8637-74DD24900A1D}">
+      <formula1>"m,ft,in,cm"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Depth Column" prompt="Column containing logger depth. Must be constant for each timeseries." sqref="M2" xr:uid="{D5E1AAEC-EBE3-A845-AC36-D23191F31BC7}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Missing Values" prompt="Comma-separated string of missing value indicators (-99,NA)" sqref="L2" xr:uid="{38EEA74B-84F4-9F4F-A672-399F0C25F71F}"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Temperature Units" prompt="C or F" sqref="K2" xr:uid="{F61D47F8-AC87-4A44-B13D-97D5C57B90B1}">
+      <formula1>"C,F"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Temperature Column" prompt="Column containing temperature values" sqref="J2" xr:uid="{2663CC13-8D10-154D-A04B-2282C8A7AACC}"/>
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Skip Lines" prompt="Must be a positive integer" sqref="B2" xr:uid="{1AB81EB9-5AD8-574F-A16C-1DC5EDA48181}">
+      <formula1>0</formula1>
+      <formula2>1000</formula2>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49586CA0-D21C-204E-A207-ACD740665BED}">
-  <dimension ref="A1:V10"/>
+  <dimension ref="A1:V9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="67.6640625" customWidth="1"/>
-    <col min="2" max="2" width="40.5" style="37" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.33203125" style="37" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="40.5" style="33" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" style="33" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18.6640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="19" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="28" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="16" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="21.6640625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="25.6640625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="22.83203125" bestFit="1" customWidth="1"/>
@@ -2655,125 +3583,125 @@
     <col min="15" max="15" width="15" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="19.1640625" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="18.6640625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.6640625" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="20" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="11.83203125" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="12.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="21" x14ac:dyDescent="0.2">
-      <c r="A1" s="36" t="s">
-        <v>76</v>
+      <c r="A1" s="32" t="s">
+        <v>55</v>
       </c>
       <c r="B1" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="H1" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="J1" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="K1" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="L1" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="D1" s="10" t="s">
+      <c r="M1" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="E1" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="F1" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="G1" s="10" t="s">
+      <c r="N1" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="O1" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="P1" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q1" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="R1" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="S1" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="T1" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="J1" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="K1" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="L1" s="10" t="s">
+      <c r="U1" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="V1" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="M1" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="N1" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="O1" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="P1" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q1" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="R1" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="S1" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="T1" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="U1" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="V1" s="10" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="2" spans="1:22" ht="176" x14ac:dyDescent="0.25">
-      <c r="A2" s="35" t="s">
-        <v>71</v>
-      </c>
-      <c r="B2" s="38" t="s">
-        <v>75</v>
+    </row>
+    <row r="2" spans="1:22" ht="176" x14ac:dyDescent="0.2">
+      <c r="A2" s="54" t="s">
+        <v>174</v>
+      </c>
+      <c r="B2" s="34" t="s">
+        <v>54</v>
       </c>
       <c r="C2" s="8">
         <v>0</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="F2" s="37"/>
+        <v>49</v>
+      </c>
+      <c r="F2" s="33"/>
       <c r="G2" s="8" t="s">
         <v>7</v>
       </c>
       <c r="H2" s="8"/>
       <c r="I2" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="J2" s="8">
-        <v>-9</v>
+        <v>139</v>
+      </c>
+      <c r="J2" s="8" t="s">
+        <v>100</v>
       </c>
       <c r="K2" s="8"/>
       <c r="L2" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="M2" s="8" t="s">
         <v>9</v>
-      </c>
-      <c r="M2" s="8" t="s">
-        <v>10</v>
       </c>
       <c r="N2" s="8">
         <v>-9999</v>
       </c>
       <c r="O2" s="8"/>
       <c r="P2" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q2" s="37"/>
-      <c r="R2" s="8"/>
-      <c r="S2" s="37"/>
+        <v>18</v>
+      </c>
+      <c r="Q2" s="33"/>
+      <c r="R2" s="33"/>
+      <c r="S2" s="8"/>
       <c r="T2" s="8">
         <v>1</v>
       </c>
@@ -2784,49 +3712,51 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:22" ht="242" x14ac:dyDescent="0.25">
-      <c r="A3" s="35" t="s">
-        <v>98</v>
-      </c>
-      <c r="B3" s="38" t="s">
-        <v>77</v>
+    <row r="3" spans="1:22" ht="242" x14ac:dyDescent="0.2">
+      <c r="A3" s="54" t="s">
+        <v>173</v>
+      </c>
+      <c r="B3" s="34" t="s">
+        <v>56</v>
       </c>
       <c r="C3" s="8">
         <v>2</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="F3" s="37"/>
+        <v>49</v>
+      </c>
+      <c r="F3" s="33"/>
       <c r="G3" s="8" t="s">
         <v>7</v>
       </c>
       <c r="H3" s="8"/>
       <c r="I3" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="J3" s="8"/>
+        <v>171</v>
+      </c>
+      <c r="J3" s="8" t="s">
+        <v>99</v>
+      </c>
       <c r="K3" s="8"/>
       <c r="L3" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="M3" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="M3" s="8" t="s">
-        <v>10</v>
-      </c>
       <c r="N3" s="11" t="s">
-        <v>73</v>
+        <v>53</v>
       </c>
       <c r="O3" s="8"/>
       <c r="P3" s="8"/>
       <c r="Q3" s="8"/>
       <c r="R3" s="8" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="S3" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="T3" s="8"/>
       <c r="U3" s="8" t="b">
@@ -2836,54 +3766,56 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:22" ht="198" x14ac:dyDescent="0.25">
-      <c r="A4" s="35" t="s">
-        <v>72</v>
-      </c>
-      <c r="B4" s="38" t="s">
-        <v>78</v>
+    <row r="4" spans="1:22" ht="220" x14ac:dyDescent="0.2">
+      <c r="A4" s="54" t="s">
+        <v>175</v>
+      </c>
+      <c r="B4" s="34" t="s">
+        <v>57</v>
       </c>
       <c r="C4" s="8">
         <v>0</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E4" s="8"/>
       <c r="F4" s="8" t="s">
-        <v>68</v>
+        <v>50</v>
       </c>
       <c r="G4" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="H4" s="8"/>
+        <v>12</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>13</v>
+      </c>
       <c r="I4" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="J4" s="8">
-        <v>-8</v>
+        <v>171</v>
+      </c>
+      <c r="J4" s="8" t="s">
+        <v>102</v>
       </c>
       <c r="K4" s="8"/>
       <c r="L4" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="M4" s="8" t="s">
         <v>9</v>
-      </c>
-      <c r="M4" s="8" t="s">
-        <v>10</v>
       </c>
       <c r="N4" s="8">
         <v>-9999</v>
       </c>
       <c r="O4" s="11" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="P4" s="8"/>
       <c r="Q4" s="8">
         <v>1</v>
       </c>
-      <c r="R4" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="S4" s="8"/>
+      <c r="R4" s="8"/>
+      <c r="S4" s="8" t="s">
+        <v>17</v>
+      </c>
       <c r="T4" s="8">
         <v>1</v>
       </c>
@@ -2894,101 +3826,78 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:22" ht="149" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="35" t="s">
-        <v>84</v>
-      </c>
-      <c r="B5" s="38" t="s">
-        <v>80</v>
+    <row r="5" spans="1:22" ht="149" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="54" t="s">
+        <v>63</v>
+      </c>
+      <c r="B5" s="34" t="s">
+        <v>59</v>
       </c>
       <c r="C5" s="8">
         <v>0</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="F5" s="37"/>
+        <v>60</v>
+      </c>
+      <c r="F5" s="33"/>
       <c r="G5" s="8" t="s">
         <v>7</v>
       </c>
       <c r="H5" s="8"/>
       <c r="I5" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="J5" s="37"/>
+        <v>172</v>
+      </c>
+      <c r="J5" s="8" t="s">
+        <v>14</v>
+      </c>
       <c r="K5" s="8" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="L5" s="8" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="M5" s="8" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="N5" s="8"/>
       <c r="O5" s="11"/>
       <c r="P5" s="8"/>
-      <c r="Q5" s="37"/>
+      <c r="Q5" s="33"/>
       <c r="R5" s="8" t="s">
-        <v>83</v>
+        <v>61</v>
       </c>
       <c r="S5" s="8" t="s">
-        <v>82</v>
+        <v>62</v>
       </c>
       <c r="T5" s="8"/>
       <c r="U5" s="8"/>
       <c r="V5" s="8"/>
     </row>
-    <row r="6" spans="1:22" ht="155" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="35" t="s">
-        <v>74</v>
-      </c>
-      <c r="B6" s="38" t="s">
-        <v>79</v>
-      </c>
-      <c r="C6" s="8">
-        <v>0</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="F6" s="37"/>
-      <c r="G6" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="H6" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="I6" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="J6" s="8">
-        <v>-8</v>
-      </c>
+    <row r="6" spans="1:22" ht="21" x14ac:dyDescent="0.2">
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="8"/>
       <c r="K6" s="8"/>
-      <c r="L6" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="M6" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="N6" s="11"/>
+      <c r="L6" s="8"/>
+      <c r="M6" s="8"/>
+      <c r="N6" s="8"/>
       <c r="O6" s="8"/>
       <c r="P6" s="8"/>
       <c r="Q6" s="8"/>
       <c r="R6" s="8"/>
       <c r="S6" s="8"/>
-      <c r="T6" s="8"/>
-      <c r="U6" s="8"/>
-      <c r="V6" s="8" t="b">
-        <v>1</v>
-      </c>
+      <c r="T6" s="7"/>
+      <c r="U6" s="7"/>
+      <c r="V6" s="7"/>
     </row>
     <row r="7" spans="1:22" ht="21" x14ac:dyDescent="0.2">
       <c r="B7" s="8"/>
@@ -2997,7 +3906,7 @@
       <c r="E7" s="8"/>
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
+      <c r="H7" s="8"/>
       <c r="I7" s="8"/>
       <c r="J7" s="8"/>
       <c r="K7" s="8"/>
@@ -3009,7 +3918,7 @@
       <c r="Q7" s="8"/>
       <c r="R7" s="8"/>
       <c r="S7" s="8"/>
-      <c r="T7" s="7"/>
+      <c r="T7" s="8"/>
       <c r="U7" s="7"/>
       <c r="V7" s="7"/>
     </row>
@@ -3032,7 +3941,7 @@
       <c r="Q8" s="8"/>
       <c r="R8" s="8"/>
       <c r="S8" s="8"/>
-      <c r="T8" s="8"/>
+      <c r="T8" s="7"/>
       <c r="U8" s="7"/>
       <c r="V8" s="7"/>
     </row>
@@ -3059,28 +3968,237 @@
       <c r="U9" s="7"/>
       <c r="V9" s="7"/>
     </row>
-    <row r="10" spans="1:22" ht="21" x14ac:dyDescent="0.2">
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="8"/>
-      <c r="K10" s="8"/>
-      <c r="L10" s="8"/>
-      <c r="M10" s="8"/>
-      <c r="N10" s="8"/>
-      <c r="O10" s="8"/>
-      <c r="P10" s="8"/>
-      <c r="Q10" s="8"/>
-      <c r="R10" s="8"/>
-      <c r="S10" s="8"/>
-      <c r="T10" s="7"/>
-      <c r="U10" s="7"/>
-      <c r="V10" s="7"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3BA739F-CAFF-114D-84D3-5EE83AB1E08A}">
+  <dimension ref="A1:Q6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="67.6640625" customWidth="1"/>
+    <col min="2" max="2" width="26.6640625" style="33" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" style="33" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="24.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="25.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="22.83203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17.83203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="20" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" ht="21" x14ac:dyDescent="0.2">
+      <c r="A1" s="32" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="I1" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="J1" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="K1" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="L1" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="M1" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="N1" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="O1" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="P1" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q1" s="10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" ht="174" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="54" t="s">
+        <v>180</v>
+      </c>
+      <c r="B2" s="34" t="s">
+        <v>58</v>
+      </c>
+      <c r="C2" s="8">
+        <v>0</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="E2" s="33"/>
+      <c r="F2" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="L2" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="M2" s="11"/>
+      <c r="N2" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="O2" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="P2" s="8"/>
+      <c r="Q2" s="8" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="132" x14ac:dyDescent="0.2">
+      <c r="A3" s="54" t="s">
+        <v>178</v>
+      </c>
+      <c r="B3" s="34" t="s">
+        <v>57</v>
+      </c>
+      <c r="C3" s="8">
+        <v>0</v>
+      </c>
+      <c r="D3" s="8"/>
+      <c r="E3" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="J3" s="8"/>
+      <c r="K3" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="L3" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="M3" s="11"/>
+      <c r="N3" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="O3" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="P3" s="8"/>
+      <c r="Q3" s="8" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="21" x14ac:dyDescent="0.2">
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="8"/>
+      <c r="M4" s="8"/>
+      <c r="N4" s="8"/>
+      <c r="O4" s="8"/>
+      <c r="P4" s="8"/>
+      <c r="Q4" s="7"/>
+    </row>
+    <row r="5" spans="1:17" ht="21" x14ac:dyDescent="0.2">
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="8"/>
+      <c r="L5" s="8"/>
+      <c r="M5" s="8"/>
+      <c r="N5" s="8"/>
+      <c r="O5" s="8"/>
+      <c r="P5" s="7"/>
+      <c r="Q5" s="7"/>
+    </row>
+    <row r="6" spans="1:17" ht="21" x14ac:dyDescent="0.2">
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="8"/>
+      <c r="M6" s="8"/>
+      <c r="N6" s="8"/>
+      <c r="O6" s="8"/>
+      <c r="P6" s="7"/>
+      <c r="Q6" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/app/public/static/aktemp-files-template.xlsx
+++ b/app/public/static/aktemp-files-template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jeff/git/aktemp/app/public/static/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A8B49D2-48C8-9645-BD76-1C546A265081}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76FB712F-6F42-9045-8187-AD42E6733314}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="48220" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="180">
   <si>
     <t>Updated:</t>
   </si>
@@ -75,9 +75,6 @@
   </si>
   <si>
     <t>COLUMN</t>
-  </si>
-  <si>
-    <t>utc_offset</t>
   </si>
   <si>
     <t>depth_m</t>
@@ -224,9 +221,6 @@
     <t>ft</t>
   </si>
   <si>
-    <t>File contains discrete measurements (grab samples via probe) at a single station (Fish Hook Creek). Timestamps in column 'datetime' and UTC offset provided in column named 'utc_offset' (should contain offset in hours, e.g. -8 or -9). Depth of each measurement provided in column named 'depth_ft' in units of 'ft'. Temperatures in column 'temp_f' in units of degF. No accuracy or qaqc information available.</t>
-  </si>
-  <si>
     <t>Requirements:</t>
   </si>
   <si>
@@ -284,13 +278,6 @@
     <t>if file contains data for multiple stations</t>
   </si>
   <si>
-    <t>approximate numeric depth at which all measurements were collected. If depths varied over deployment, enter depth at start of deployment.</t>
-  </si>
-  <si>
-    <t>depth units for the corresponding numeric depth values ('m', 'cm', 'ft', 'in')
-leave blank if Numeric Depth and Depth Column are both blank</t>
-  </si>
-  <si>
     <t>Depth Category:</t>
   </si>
   <si>
@@ -307,9 +294,6 @@
   </si>
   <si>
     <t>Near the surface</t>
-  </si>
-  <si>
-    <t>depth category at which all measurements were collected, see definitions below</t>
   </si>
   <si>
     <t>5. Click Submit to validate and upload each file to AKTEMP</t>
@@ -425,9 +409,6 @@
   </si>
   <si>
     <t>If either Numeric Depth or Depth Category is not blank</t>
-  </si>
-  <si>
-    <t xml:space="preserve">column name containing the numeric depth of each measurement. For timeseries data, depths cannot varying over time and must be a constant value over all measurements within a single timeseries. </t>
   </si>
   <si>
     <t>decimal number</t>
@@ -626,6 +607,25 @@
   </si>
   <si>
     <t>File contains vertical profiles at a single station (Great Pond). Dates and times provided in separate columns ('date' and 'time') with format 'yyyy-MM-dd HH:mm' in local timezone of station. Temperature measurements in column named 'temperature' with units of degC. Depths in column 'depth' with units 'm'. File has been reviewed, but no flags provided indicating all data are valid (no outliers or erroneous values)</t>
+  </si>
+  <si>
+    <t>approximate numeric depth at which all measurements were collected. If depths varied over deployment, enter depth at start of deployment.
+must be blank if Interval=DISCRETE (depths not supported for discrete timeseries)</t>
+  </si>
+  <si>
+    <t>depth category at which all measurements were collected, see definitions below.
+must be blank if Interval=DISCRETE (depths not supported for discrete timeseries)</t>
+  </si>
+  <si>
+    <t>column name containing the numeric depth of each measurement. For timeseries data, depths cannot varying over time and must be a constant value over all measurements within a single timeseries. 
+must be blank if Interval=DISCRETE (depths not supported for discrete timeseries)</t>
+  </si>
+  <si>
+    <t>depth units for the corresponding numeric depth values ('m', 'cm', 'ft', 'in')
+leave blank if Numeric Depth and Depth Column are both blank or if Interval=DISCRETE (depths not supported for discrete timeseries)</t>
+  </si>
+  <si>
+    <t>File contains discrete measurements (grab samples via probe) at a single station (Fish Hook Creek). Timestamps in column 'datetime' and in local timezone. Temperatures in column 'temp_f' in units of degF. No accuracy or qaqc information available.</t>
   </si>
 </sst>
 </file>
@@ -1465,24 +1465,75 @@
     <xf numFmtId="0" fontId="22" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -1499,57 +1550,6 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2065,7 +2065,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="24" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -2073,7 +2073,7 @@
         <v>0</v>
       </c>
       <c r="B3" s="29">
-        <v>44861</v>
+        <v>44868</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -2085,7 +2085,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -2094,15 +2094,15 @@
     </row>
     <row r="7" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="30" t="s">
-        <v>64</v>
-      </c>
-      <c r="B7" s="83" t="s">
-        <v>65</v>
-      </c>
-      <c r="C7" s="83"/>
-      <c r="D7" s="83"/>
-      <c r="E7" s="83"/>
-      <c r="F7" s="83"/>
+        <v>62</v>
+      </c>
+      <c r="B7" s="55" t="s">
+        <v>63</v>
+      </c>
+      <c r="C7" s="55"/>
+      <c r="D7" s="55"/>
+      <c r="E7" s="55"/>
+      <c r="F7" s="55"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
@@ -2113,37 +2113,37 @@
         <v>2</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="B10" s="4" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="5"/>
       <c r="B11" s="4" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="5"/>
       <c r="B12" s="4" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="5"/>
       <c r="B13" s="4" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="5"/>
       <c r="B14" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -2154,13 +2154,13 @@
         <v>3</v>
       </c>
       <c r="B16" s="22" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C16" s="23" t="s">
         <v>4</v>
       </c>
       <c r="D16" s="43" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="E16" s="22" t="s">
         <v>5</v>
@@ -2172,400 +2172,400 @@
     <row r="17" spans="1:12" ht="20" x14ac:dyDescent="0.25">
       <c r="A17" s="5"/>
       <c r="B17" s="24" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C17" s="25" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D17" s="25"/>
       <c r="E17" s="24"/>
       <c r="F17" s="26" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A18" s="5"/>
       <c r="B18" s="24" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C18" s="25" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D18" s="25"/>
       <c r="E18" s="24" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F18" s="26" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="19" spans="1:12" ht="20" x14ac:dyDescent="0.25">
       <c r="A19" s="5"/>
       <c r="B19" s="24" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="C19" s="25"/>
       <c r="D19" s="25" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="E19" s="24" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="F19" s="26" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
     </row>
     <row r="20" spans="1:12" ht="40" x14ac:dyDescent="0.25">
       <c r="A20" s="5"/>
       <c r="B20" s="24" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C20" s="25" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D20" s="25"/>
       <c r="E20" s="27" t="s">
+        <v>75</v>
+      </c>
+      <c r="F20" s="28" t="s">
         <v>77</v>
-      </c>
-      <c r="F20" s="28" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="21" spans="1:12" ht="40" x14ac:dyDescent="0.25">
       <c r="A21" s="5"/>
       <c r="B21" s="24" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C21" s="25" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D21" s="25"/>
       <c r="E21" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="F21" s="28" t="s">
         <v>78</v>
-      </c>
-      <c r="F21" s="28" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="22" spans="1:12" ht="40" x14ac:dyDescent="0.25">
       <c r="A22" s="5"/>
       <c r="B22" s="24" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="C22" s="25" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D22" s="25"/>
       <c r="E22" s="24" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F22" s="26" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="23" spans="1:12" ht="40" x14ac:dyDescent="0.25">
       <c r="A23" s="5"/>
       <c r="B23" s="24" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C23" s="25"/>
       <c r="D23" s="25"/>
       <c r="E23" s="27"/>
       <c r="F23" s="26" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="24" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A24" s="5"/>
       <c r="B24" s="24" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="C24" s="25" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D24" s="25"/>
       <c r="E24" s="27" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="F24" s="26" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="25" spans="1:12" ht="40" x14ac:dyDescent="0.25">
       <c r="B25" s="24" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="C25" s="25" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D25" s="25"/>
       <c r="E25" s="35" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="F25" s="26" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
     </row>
     <row r="26" spans="1:12" ht="40" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="24" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C26" s="25" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="D26" s="25"/>
       <c r="E26" s="27"/>
       <c r="F26" s="26" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
     </row>
     <row r="27" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="24" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C27" s="25" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D27" s="25"/>
       <c r="E27" s="27" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F27" s="26" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="28" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="24" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C28" s="25" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D28" s="25"/>
       <c r="E28" s="24" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="F28" s="26" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L28" s="13"/>
     </row>
     <row r="29" spans="1:12" ht="40" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="24" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C29" s="25"/>
       <c r="D29" s="25"/>
       <c r="E29" s="24"/>
       <c r="F29" s="26" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="30" spans="1:12" ht="40" x14ac:dyDescent="0.25">
       <c r="B30" s="24" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C30" s="25"/>
       <c r="D30" s="25" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="E30" s="27" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F30" s="26" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="31" spans="1:12" ht="40" x14ac:dyDescent="0.25">
       <c r="B31" s="24" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C31" s="25"/>
       <c r="D31" s="25" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="E31" s="35" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="F31" s="26" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" ht="40" x14ac:dyDescent="0.25">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="B32" s="24" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C32" s="25"/>
       <c r="D32" s="25" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="E32" s="27" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="F32" s="26" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" ht="41" customHeight="1" x14ac:dyDescent="0.25">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" ht="61" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="24" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C33" s="25"/>
       <c r="D33" s="25"/>
       <c r="E33" s="27" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F33" s="26" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" ht="40" x14ac:dyDescent="0.25">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="B34" s="24" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C34" s="25" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="D34" s="25"/>
       <c r="E34" s="24"/>
       <c r="F34" s="26" t="s">
-        <v>84</v>
+        <v>178</v>
       </c>
     </row>
     <row r="35" spans="1:11" ht="40" x14ac:dyDescent="0.25">
       <c r="B35" s="24" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C35" s="25"/>
       <c r="D35" s="25"/>
       <c r="E35" s="27" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F35" s="26" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="36" spans="1:11" ht="40" x14ac:dyDescent="0.25">
       <c r="B36" s="24" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C36" s="25"/>
       <c r="D36" s="25" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="E36" s="27" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F36" s="26" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="37" spans="1:11" ht="80" x14ac:dyDescent="0.25">
       <c r="B37" s="24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C37" s="25"/>
       <c r="D37" s="25"/>
       <c r="E37" s="27" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F37" s="26" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
     </row>
     <row r="39" spans="1:11" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B39" s="19" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="C39" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="D39" s="76" t="s">
-        <v>33</v>
-      </c>
-      <c r="E39" s="71"/>
-      <c r="F39" s="72"/>
+      <c r="D39" s="56" t="s">
+        <v>32</v>
+      </c>
+      <c r="E39" s="57"/>
+      <c r="F39" s="58"/>
     </row>
     <row r="40" spans="1:11" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="20"/>
       <c r="C40" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="D40" s="73" t="s">
-        <v>135</v>
-      </c>
-      <c r="E40" s="74"/>
-      <c r="F40" s="75"/>
+      <c r="D40" s="59" t="s">
+        <v>129</v>
+      </c>
+      <c r="E40" s="60"/>
+      <c r="F40" s="61"/>
     </row>
     <row r="41" spans="1:11" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="36" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="C41" s="14" t="s">
-        <v>139</v>
-      </c>
-      <c r="D41" s="80" t="s">
-        <v>140</v>
-      </c>
-      <c r="E41" s="81"/>
-      <c r="F41" s="82"/>
+        <v>133</v>
+      </c>
+      <c r="D41" s="71" t="s">
+        <v>134</v>
+      </c>
+      <c r="E41" s="72"/>
+      <c r="F41" s="73"/>
     </row>
     <row r="42" spans="1:11" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="44"/>
       <c r="C42" s="16" t="s">
-        <v>141</v>
-      </c>
-      <c r="D42" s="67" t="s">
-        <v>142</v>
-      </c>
-      <c r="E42" s="59"/>
-      <c r="F42" s="60"/>
+        <v>135</v>
+      </c>
+      <c r="D42" s="74" t="s">
+        <v>136</v>
+      </c>
+      <c r="E42" s="75"/>
+      <c r="F42" s="76"/>
     </row>
     <row r="43" spans="1:11" ht="57" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" s="36" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="C43" s="41" t="s">
-        <v>99</v>
-      </c>
-      <c r="D43" s="76" t="s">
-        <v>105</v>
-      </c>
-      <c r="E43" s="71"/>
-      <c r="F43" s="72"/>
+        <v>94</v>
+      </c>
+      <c r="D43" s="56" t="s">
+        <v>100</v>
+      </c>
+      <c r="E43" s="57"/>
+      <c r="F43" s="58"/>
     </row>
     <row r="44" spans="1:11" ht="38" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B44" s="37"/>
       <c r="C44" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="D44" s="77" t="s">
-        <v>106</v>
-      </c>
-      <c r="E44" s="56"/>
-      <c r="F44" s="78"/>
+      <c r="D44" s="62" t="s">
+        <v>101</v>
+      </c>
+      <c r="E44" s="63"/>
+      <c r="F44" s="64"/>
     </row>
     <row r="45" spans="1:11" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B45" s="37"/>
       <c r="C45" s="42" t="s">
-        <v>100</v>
-      </c>
-      <c r="D45" s="79" t="s">
-        <v>134</v>
-      </c>
-      <c r="E45" s="55"/>
-      <c r="F45" s="58"/>
+        <v>95</v>
+      </c>
+      <c r="D45" s="65" t="s">
+        <v>128</v>
+      </c>
+      <c r="E45" s="66"/>
+      <c r="F45" s="67"/>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B46" s="37"/>
       <c r="C46" s="42" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="D46" s="68" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="E46" s="69"/>
       <c r="F46" s="70"/>
@@ -2573,10 +2573,10 @@
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B47" s="37"/>
       <c r="C47" s="42" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="D47" s="68" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="E47" s="69"/>
       <c r="F47" s="70"/>
@@ -2586,10 +2586,10 @@
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B48" s="37"/>
       <c r="C48" s="42" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="D48" s="68" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="E48" s="69"/>
       <c r="F48" s="70"/>
@@ -2599,131 +2599,131 @@
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B49" s="38"/>
       <c r="C49" s="42" t="s">
-        <v>104</v>
-      </c>
-      <c r="D49" s="67" t="s">
-        <v>110</v>
-      </c>
-      <c r="E49" s="59"/>
-      <c r="F49" s="60"/>
+        <v>99</v>
+      </c>
+      <c r="D49" s="74" t="s">
+        <v>105</v>
+      </c>
+      <c r="E49" s="75"/>
+      <c r="F49" s="76"/>
       <c r="G49" s="12"/>
     </row>
     <row r="50" spans="1:7" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B50" s="37" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C50" s="14" t="s">
-        <v>87</v>
-      </c>
-      <c r="D50" s="71" t="s">
-        <v>90</v>
-      </c>
-      <c r="E50" s="71"/>
-      <c r="F50" s="72"/>
+        <v>83</v>
+      </c>
+      <c r="D50" s="57" t="s">
+        <v>86</v>
+      </c>
+      <c r="E50" s="57"/>
+      <c r="F50" s="58"/>
       <c r="G50" s="12"/>
     </row>
     <row r="51" spans="1:7" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B51" s="37"/>
       <c r="C51" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="D51" s="55" t="s">
-        <v>89</v>
-      </c>
-      <c r="E51" s="55"/>
-      <c r="F51" s="58"/>
+        <v>17</v>
+      </c>
+      <c r="D51" s="66" t="s">
+        <v>85</v>
+      </c>
+      <c r="E51" s="66"/>
+      <c r="F51" s="67"/>
       <c r="G51" s="12"/>
     </row>
     <row r="52" spans="1:7" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B52" s="37"/>
       <c r="C52" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="D52" s="55" t="s">
-        <v>88</v>
-      </c>
-      <c r="E52" s="55"/>
-      <c r="F52" s="58"/>
+        <v>82</v>
+      </c>
+      <c r="D52" s="66" t="s">
+        <v>84</v>
+      </c>
+      <c r="E52" s="66"/>
+      <c r="F52" s="67"/>
       <c r="G52" s="12"/>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B53" s="38"/>
       <c r="C53" s="40" t="s">
-        <v>132</v>
-      </c>
-      <c r="D53" s="59" t="s">
-        <v>133</v>
-      </c>
-      <c r="E53" s="59"/>
-      <c r="F53" s="60"/>
+        <v>126</v>
+      </c>
+      <c r="D53" s="75" t="s">
+        <v>127</v>
+      </c>
+      <c r="E53" s="75"/>
+      <c r="F53" s="76"/>
       <c r="G53" s="12"/>
     </row>
     <row r="54" spans="1:7" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B54" s="21" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C54" s="14">
         <v>1</v>
       </c>
-      <c r="D54" s="61" t="s">
-        <v>42</v>
-      </c>
-      <c r="E54" s="62"/>
-      <c r="F54" s="63"/>
+      <c r="D54" s="78" t="s">
+        <v>41</v>
+      </c>
+      <c r="E54" s="79"/>
+      <c r="F54" s="80"/>
     </row>
     <row r="55" spans="1:7" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B55" s="17"/>
       <c r="C55" s="15">
         <v>2</v>
       </c>
-      <c r="D55" s="64" t="s">
-        <v>43</v>
-      </c>
-      <c r="E55" s="65"/>
-      <c r="F55" s="66"/>
+      <c r="D55" s="81" t="s">
+        <v>42</v>
+      </c>
+      <c r="E55" s="82"/>
+      <c r="F55" s="83"/>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B56" s="18"/>
       <c r="C56" s="40">
         <v>3</v>
       </c>
-      <c r="D56" s="67" t="s">
-        <v>44</v>
-      </c>
-      <c r="E56" s="59"/>
-      <c r="F56" s="60"/>
+      <c r="D56" s="74" t="s">
+        <v>43</v>
+      </c>
+      <c r="E56" s="75"/>
+      <c r="F56" s="76"/>
     </row>
     <row r="58" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="30" t="s">
-        <v>137</v>
-      </c>
-      <c r="B58" s="55" t="s">
-        <v>167</v>
-      </c>
-      <c r="C58" s="55"/>
-      <c r="D58" s="55"/>
-      <c r="E58" s="55"/>
-      <c r="F58" s="55"/>
+        <v>131</v>
+      </c>
+      <c r="B58" s="66" t="s">
+        <v>161</v>
+      </c>
+      <c r="C58" s="66"/>
+      <c r="D58" s="66"/>
+      <c r="E58" s="66"/>
+      <c r="F58" s="66"/>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B60" s="1" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B61" s="5" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="C61" s="13" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B62" s="5" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="C62" s="13" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
@@ -2732,64 +2732,64 @@
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B64" s="22" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="C64" s="13"/>
     </row>
     <row r="66" spans="2:6" ht="40" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B66" s="55" t="s">
-        <v>166</v>
-      </c>
-      <c r="C66" s="55"/>
-      <c r="D66" s="55"/>
-      <c r="E66" s="55"/>
-      <c r="F66" s="55"/>
+      <c r="B66" s="66" t="s">
+        <v>160</v>
+      </c>
+      <c r="C66" s="66"/>
+      <c r="D66" s="66"/>
+      <c r="E66" s="66"/>
+      <c r="F66" s="66"/>
     </row>
     <row r="68" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B68" s="5" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="C68" s="52" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="D68" s="45" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
     </row>
     <row r="69" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B69" s="5"/>
       <c r="C69" s="52" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="D69" s="45" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
     </row>
     <row r="70" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B70" s="5"/>
       <c r="C70" s="52" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="D70" s="46" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
     </row>
     <row r="71" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B71" s="5"/>
       <c r="C71" s="52" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="D71" s="46" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
     </row>
     <row r="72" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B72" s="5"/>
       <c r="C72" s="52" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="D72" s="46" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
     </row>
     <row r="73" spans="2:6" x14ac:dyDescent="0.25">
@@ -2798,10 +2798,10 @@
     </row>
     <row r="74" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B74" s="5" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="C74" s="52" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="D74" s="47">
         <v>0.16111111111111112</v>
@@ -2809,7 +2809,7 @@
     </row>
     <row r="75" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C75" s="52" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="D75" s="48">
         <v>0.16111111111111112</v>
@@ -2817,15 +2817,15 @@
     </row>
     <row r="76" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C76" s="52" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="D76" s="49" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
     </row>
     <row r="77" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C77" s="52" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="D77" s="50">
         <v>0.66111111111111109</v>
@@ -2833,38 +2833,23 @@
     </row>
     <row r="78" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C78" s="52" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="D78" s="51">
         <v>0.66111111111111109</v>
       </c>
     </row>
     <row r="80" spans="2:6" ht="61" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B80" s="56" t="s">
-        <v>169</v>
-      </c>
-      <c r="C80" s="57"/>
-      <c r="D80" s="57"/>
-      <c r="E80" s="57"/>
-      <c r="F80" s="57"/>
+      <c r="B80" s="63" t="s">
+        <v>163</v>
+      </c>
+      <c r="C80" s="77"/>
+      <c r="D80" s="77"/>
+      <c r="E80" s="77"/>
+      <c r="F80" s="77"/>
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="B7:F7"/>
-    <mergeCell ref="D39:F39"/>
-    <mergeCell ref="D40:F40"/>
-    <mergeCell ref="D43:F43"/>
-    <mergeCell ref="D44:F44"/>
-    <mergeCell ref="D45:F45"/>
-    <mergeCell ref="D46:F46"/>
-    <mergeCell ref="D41:F41"/>
-    <mergeCell ref="D42:F42"/>
-    <mergeCell ref="D47:F47"/>
-    <mergeCell ref="D48:F48"/>
-    <mergeCell ref="D49:F49"/>
-    <mergeCell ref="D50:F50"/>
-    <mergeCell ref="D51:F51"/>
-    <mergeCell ref="B58:F58"/>
     <mergeCell ref="B66:F66"/>
     <mergeCell ref="B80:F80"/>
     <mergeCell ref="D52:F52"/>
@@ -2872,6 +2857,21 @@
     <mergeCell ref="D54:F54"/>
     <mergeCell ref="D55:F55"/>
     <mergeCell ref="D56:F56"/>
+    <mergeCell ref="D48:F48"/>
+    <mergeCell ref="D49:F49"/>
+    <mergeCell ref="D50:F50"/>
+    <mergeCell ref="D51:F51"/>
+    <mergeCell ref="B58:F58"/>
+    <mergeCell ref="D45:F45"/>
+    <mergeCell ref="D46:F46"/>
+    <mergeCell ref="D41:F41"/>
+    <mergeCell ref="D42:F42"/>
+    <mergeCell ref="D47:F47"/>
+    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="D39:F39"/>
+    <mergeCell ref="D40:F40"/>
+    <mergeCell ref="D43:F43"/>
+    <mergeCell ref="D44:F44"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C62" r:id="rId1" location="/parsing?id=table-of-tokens" xr:uid="{EBE246B7-3C99-9446-A481-57B6DEAF92B7}"/>
@@ -2922,67 +2922,67 @@
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="G1" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="C1" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="D1" s="10" t="s">
+      <c r="H1" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="I1" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="J1" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="K1" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="L1" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="M1" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="N1" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="O1" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="F1" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="G1" s="10" t="s">
+      <c r="P1" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q1" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="R1" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="H1" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="I1" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="J1" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="K1" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="L1" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="M1" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="N1" s="10" t="s">
+      <c r="S1" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="O1" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="P1" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="Q1" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="R1" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="S1" s="10" t="s">
+      <c r="T1" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="T1" s="10" t="s">
+      <c r="U1" s="10" t="s">
         <v>30</v>
-      </c>
-      <c r="U1" s="10" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.2">
@@ -3290,52 +3290,52 @@
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="F1" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="C1" s="10" t="s">
+      <c r="G1" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="H1" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="I1" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="D1" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="E1" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="F1" s="10" t="s">
+      <c r="J1" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="K1" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="L1" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="M1" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="N1" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="G1" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="H1" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="I1" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="J1" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="K1" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="L1" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="M1" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="N1" s="10" t="s">
-        <v>24</v>
-      </c>
       <c r="O1" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="P1" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
@@ -3561,7 +3561,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3592,78 +3592,78 @@
   <sheetData>
     <row r="1" spans="1:22" ht="21" x14ac:dyDescent="0.2">
       <c r="A1" s="32" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B1" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="H1" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="D1" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="E1" s="10" t="s">
+      <c r="I1" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="J1" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="K1" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="L1" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="M1" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="N1" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="O1" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="P1" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="G1" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="H1" s="10" t="s">
+      <c r="Q1" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="R1" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="S1" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="I1" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="J1" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="K1" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="L1" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="M1" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="N1" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="O1" s="10" t="s">
+      <c r="T1" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="P1" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="Q1" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="R1" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="S1" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="T1" s="10" t="s">
+      <c r="U1" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="U1" s="10" t="s">
+      <c r="V1" s="10" t="s">
         <v>30</v>
-      </c>
-      <c r="V1" s="10" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:22" ht="176" x14ac:dyDescent="0.2">
       <c r="A2" s="54" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="B2" s="34" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C2" s="8">
         <v>0</v>
@@ -3672,7 +3672,7 @@
         <v>10</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F2" s="33"/>
       <c r="G2" s="8" t="s">
@@ -3680,10 +3680,10 @@
       </c>
       <c r="H2" s="8"/>
       <c r="I2" s="8" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="J2" s="8" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="K2" s="8"/>
       <c r="L2" s="8" t="s">
@@ -3697,7 +3697,7 @@
       </c>
       <c r="O2" s="8"/>
       <c r="P2" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Q2" s="33"/>
       <c r="R2" s="33"/>
@@ -3714,10 +3714,10 @@
     </row>
     <row r="3" spans="1:22" ht="242" x14ac:dyDescent="0.2">
       <c r="A3" s="54" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="B3" s="34" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C3" s="8">
         <v>2</v>
@@ -3726,7 +3726,7 @@
         <v>10</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F3" s="33"/>
       <c r="G3" s="8" t="s">
@@ -3734,10 +3734,10 @@
       </c>
       <c r="H3" s="8"/>
       <c r="I3" s="8" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="J3" s="8" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="K3" s="8"/>
       <c r="L3" s="8" t="s">
@@ -3747,16 +3747,16 @@
         <v>9</v>
       </c>
       <c r="N3" s="11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="O3" s="8"/>
       <c r="P3" s="8"/>
       <c r="Q3" s="8"/>
       <c r="R3" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="S3" s="8" t="s">
         <v>16</v>
-      </c>
-      <c r="S3" s="8" t="s">
-        <v>17</v>
       </c>
       <c r="T3" s="8"/>
       <c r="U3" s="8" t="b">
@@ -3768,10 +3768,10 @@
     </row>
     <row r="4" spans="1:22" ht="220" x14ac:dyDescent="0.2">
       <c r="A4" s="54" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="B4" s="34" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C4" s="8">
         <v>0</v>
@@ -3781,7 +3781,7 @@
       </c>
       <c r="E4" s="8"/>
       <c r="F4" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G4" s="8" t="s">
         <v>12</v>
@@ -3790,10 +3790,10 @@
         <v>13</v>
       </c>
       <c r="I4" s="8" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="J4" s="8" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="K4" s="8"/>
       <c r="L4" s="8" t="s">
@@ -3806,7 +3806,7 @@
         <v>-9999</v>
       </c>
       <c r="O4" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P4" s="8"/>
       <c r="Q4" s="8">
@@ -3814,7 +3814,7 @@
       </c>
       <c r="R4" s="8"/>
       <c r="S4" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="T4" s="8">
         <v>1</v>
@@ -3828,10 +3828,10 @@
     </row>
     <row r="5" spans="1:22" ht="149" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="54" t="s">
-        <v>63</v>
+        <v>179</v>
       </c>
       <c r="B5" s="34" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C5" s="8">
         <v>0</v>
@@ -3840,7 +3840,7 @@
         <v>11</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F5" s="33"/>
       <c r="G5" s="8" t="s">
@@ -3848,30 +3848,24 @@
       </c>
       <c r="H5" s="8"/>
       <c r="I5" s="8" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="J5" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="K5" s="8" t="s">
-        <v>15</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="K5" s="8"/>
       <c r="L5" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="M5" s="8" t="s">
         <v>20</v>
-      </c>
-      <c r="M5" s="8" t="s">
-        <v>21</v>
       </c>
       <c r="N5" s="8"/>
       <c r="O5" s="11"/>
       <c r="P5" s="8"/>
       <c r="Q5" s="33"/>
-      <c r="R5" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="S5" s="8" t="s">
-        <v>62</v>
-      </c>
+      <c r="R5" s="8"/>
+      <c r="S5" s="8"/>
       <c r="T5" s="8"/>
       <c r="U5" s="8"/>
       <c r="V5" s="8"/>
@@ -4007,69 +4001,69 @@
   <sheetData>
     <row r="1" spans="1:17" ht="21" x14ac:dyDescent="0.2">
       <c r="A1" s="32" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B1" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="G1" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="D1" s="10" t="s">
+      <c r="H1" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="I1" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="J1" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="E1" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="F1" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="G1" s="10" t="s">
+      <c r="K1" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="L1" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="M1" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="N1" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="O1" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="H1" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="I1" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="J1" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="K1" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="L1" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="M1" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="N1" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="O1" s="10" t="s">
-        <v>24</v>
-      </c>
       <c r="P1" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="Q1" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="174" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="54" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="B2" s="34" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C2" s="8">
         <v>0</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E2" s="33"/>
       <c r="F2" s="8" t="s">
@@ -4079,24 +4073,24 @@
         <v>13</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="J2" s="8"/>
       <c r="K2" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L2" s="8" t="s">
         <v>9</v>
       </c>
       <c r="M2" s="11"/>
       <c r="N2" s="8" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="O2" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P2" s="8"/>
       <c r="Q2" s="8" t="b">
@@ -4105,41 +4099,41 @@
     </row>
     <row r="3" spans="1:17" ht="132" x14ac:dyDescent="0.2">
       <c r="A3" s="54" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="B3" s="34" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C3" s="8">
         <v>0</v>
       </c>
       <c r="D3" s="8"/>
       <c r="E3" s="7" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="F3" s="8" t="s">
         <v>12</v>
       </c>
       <c r="G3" s="8"/>
       <c r="H3" s="8" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="I3" s="8" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="J3" s="8"/>
       <c r="K3" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="L3" s="8" t="s">
         <v>20</v>
-      </c>
-      <c r="L3" s="8" t="s">
-        <v>21</v>
       </c>
       <c r="M3" s="11"/>
       <c r="N3" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="O3" s="8" t="s">
         <v>61</v>
-      </c>
-      <c r="O3" s="8" t="s">
-        <v>62</v>
       </c>
       <c r="P3" s="8"/>
       <c r="Q3" s="8" t="b">
